--- a/capiq_data/in_process_data/IQ96161.xlsx
+++ b/capiq_data/in_process_data/IQ96161.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575680D5-3B61-4C76-AE04-F1E432BA204B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2702A845-590E-43C7-8D02-3936D3AE4C95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"4649a070-9b33-491e-b3a0-01a1da41798f"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"8ccaf266-ea5b-41de-95ee-4841c02d5420"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>246.5</v>
+        <v>142.20599999999999</v>
       </c>
       <c r="D2">
-        <v>3586.8</v>
+        <v>1802.4469999999999</v>
       </c>
       <c r="E2">
-        <v>5977.2</v>
+        <v>4260.7470000000003</v>
       </c>
       <c r="F2">
-        <v>899.1</v>
+        <v>752.46500000000003</v>
       </c>
       <c r="G2">
-        <v>10194.1</v>
+        <v>5366.8829999999998</v>
       </c>
       <c r="H2">
-        <v>19566.099999999999</v>
+        <v>9853.7070000000003</v>
       </c>
       <c r="I2">
-        <v>7726.9</v>
+        <v>4351.0389999999998</v>
       </c>
       <c r="J2">
-        <v>3148.8</v>
+        <v>1245.3869999999999</v>
       </c>
       <c r="K2">
-        <v>50.2</v>
+        <v>72.813000000000002</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11023.1</v>
+        <v>6625.0519999999997</v>
       </c>
       <c r="O2">
-        <v>15471.9</v>
+        <v>8167.36</v>
       </c>
       <c r="P2">
-        <v>3251.4</v>
+        <v>1347.5070000000001</v>
       </c>
       <c r="Q2">
-        <v>599.4</v>
+        <v>81.772999999999996</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>65500</v>
+        <v>56000</v>
       </c>
       <c r="T2">
-        <v>4094.2</v>
+        <v>1686.347</v>
       </c>
       <c r="U2">
-        <v>2288.6999999999998</v>
+        <v>516.81700000000001</v>
       </c>
       <c r="V2">
-        <v>1444.5</v>
+        <v>1150.2729999999999</v>
       </c>
       <c r="W2">
-        <v>-60.5</v>
+        <v>-30.318999999999999</v>
       </c>
       <c r="X2">
-        <v>-794.6</v>
+        <v>-733.09199999999998</v>
       </c>
       <c r="Y2">
-        <v>30.7</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>7.8</v>
+        <v>-76.695999999999998</v>
       </c>
       <c r="AA2">
-        <v>246.5</v>
+        <v>142.20599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>201.9</v>
+        <v>95.28</v>
       </c>
       <c r="D3">
-        <v>3151.3</v>
+        <v>1601.134</v>
       </c>
       <c r="E3">
-        <v>5470.8</v>
+        <v>3789.7359999999999</v>
       </c>
       <c r="F3">
-        <v>825.8</v>
+        <v>656.26900000000001</v>
       </c>
       <c r="G3">
-        <v>9165.9</v>
+        <v>4795.076</v>
       </c>
       <c r="H3">
-        <v>19168.5</v>
+        <v>9227.2289999999994</v>
       </c>
       <c r="I3">
-        <v>6918</v>
+        <v>3227.5920000000001</v>
       </c>
       <c r="J3">
-        <v>3148.1</v>
+        <v>2133.8220000000001</v>
       </c>
       <c r="K3">
-        <v>62.5</v>
+        <v>143.78800000000001</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-11.954000000000001</v>
       </c>
       <c r="N3">
-        <v>10396.9</v>
+        <v>5132.0889999999999</v>
       </c>
       <c r="O3">
-        <v>14969.7</v>
+        <v>7596.5060000000003</v>
       </c>
       <c r="P3">
-        <v>3212.2</v>
+        <v>2308.3069999999998</v>
       </c>
       <c r="Q3">
-        <v>-776.5</v>
+        <v>-96.111999999999995</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4198.8</v>
+        <v>1630.723</v>
       </c>
       <c r="U3">
-        <v>1512.2</v>
+        <v>420.70499999999998</v>
       </c>
       <c r="V3">
-        <v>-176.9</v>
+        <v>-913.79</v>
       </c>
       <c r="W3">
-        <v>-57.9</v>
+        <v>-30.628</v>
       </c>
       <c r="X3">
-        <v>-390</v>
+        <v>882.40599999999995</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>11.1</v>
+        <v>63.247</v>
       </c>
       <c r="AA3">
-        <v>201.9</v>
+        <v>95.28</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>275.10000000000002</v>
+        <v>151.36600000000001</v>
       </c>
       <c r="D4">
-        <v>3487.4</v>
+        <v>1746.788</v>
       </c>
       <c r="E4">
-        <v>5981</v>
+        <v>4100.5720000000001</v>
       </c>
       <c r="F4">
-        <v>1014.6</v>
+        <v>687.79200000000003</v>
       </c>
       <c r="G4">
-        <v>9034.4</v>
+        <v>5135.2460000000001</v>
       </c>
       <c r="H4">
-        <v>19156.7</v>
+        <v>9825.5990000000002</v>
       </c>
       <c r="I4">
-        <v>7155.6</v>
+        <v>3745.6469999999999</v>
       </c>
       <c r="J4">
-        <v>3153.9</v>
+        <v>2100.2869999999998</v>
       </c>
       <c r="K4">
-        <v>63.9</v>
+        <v>64.832999999999998</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10354.799999999999</v>
+        <v>5567.9610000000002</v>
       </c>
       <c r="O4">
-        <v>14920.8</v>
+        <v>8002.06</v>
       </c>
       <c r="P4">
-        <v>3219.6</v>
+        <v>2224.6950000000002</v>
       </c>
       <c r="Q4">
-        <v>-525.9</v>
+        <v>4.54</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>4235.8999999999996</v>
+        <v>1823.539</v>
       </c>
       <c r="U4">
-        <v>986.3</v>
+        <v>425.245</v>
       </c>
       <c r="V4">
-        <v>-85.7</v>
+        <v>390.96699999999998</v>
       </c>
       <c r="W4">
-        <v>-71.3</v>
+        <v>-31.774999999999999</v>
       </c>
       <c r="X4">
-        <v>-364.1</v>
+        <v>-90.31</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-10.3</v>
+        <v>-17.716000000000001</v>
       </c>
       <c r="AA4">
-        <v>275.10000000000002</v>
+        <v>151.36600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>203.7</v>
+        <v>92.355000000000004</v>
       </c>
       <c r="D5">
-        <v>3380.9</v>
+        <v>1571.0119999999999</v>
       </c>
       <c r="E5">
-        <v>5971.4</v>
+        <v>4148.1059999999998</v>
       </c>
       <c r="F5">
-        <v>876.2</v>
+        <v>554.87099999999998</v>
       </c>
       <c r="G5">
-        <v>8974.7000000000007</v>
+        <v>5205.3209999999999</v>
       </c>
       <c r="H5">
-        <v>18936</v>
+        <v>10361.118</v>
       </c>
       <c r="I5">
-        <v>6948.1</v>
+        <v>3798.97</v>
       </c>
       <c r="J5">
-        <v>3184.2</v>
+        <v>2340.308</v>
       </c>
       <c r="K5">
-        <v>16.399999999999999</v>
+        <v>73.83</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10200.9</v>
+        <v>5663.1629999999996</v>
       </c>
       <c r="O5">
-        <v>14829.7</v>
+        <v>8375.4860000000008</v>
       </c>
       <c r="P5">
-        <v>3201.6</v>
+        <v>2449.8000000000002</v>
       </c>
       <c r="Q5">
-        <v>-85.7</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>4106.3</v>
+        <v>1985.6320000000001</v>
       </c>
       <c r="U5">
-        <v>900.6</v>
+        <v>421.14499999999998</v>
       </c>
       <c r="V5">
-        <v>263.10000000000002</v>
+        <v>113.29600000000001</v>
       </c>
       <c r="W5">
-        <v>-69.8</v>
+        <v>-37.587000000000003</v>
       </c>
       <c r="X5">
-        <v>-190.6</v>
+        <v>190.49</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>15.5</v>
+        <v>10.664</v>
       </c>
       <c r="AA5">
-        <v>203.7</v>
+        <v>92.355000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>271.89999999999998</v>
+        <v>164.14099999999999</v>
       </c>
       <c r="D6">
-        <v>3852.9</v>
+        <v>1970.473</v>
       </c>
       <c r="E6">
-        <v>6632</v>
+        <v>4103.54</v>
       </c>
       <c r="F6">
-        <v>998.1</v>
+        <v>684.74900000000002</v>
       </c>
       <c r="G6">
-        <v>10421.5</v>
+        <v>5233.8239999999996</v>
       </c>
       <c r="H6">
-        <v>20505.400000000001</v>
+        <v>10617.414000000001</v>
       </c>
       <c r="I6">
-        <v>8060</v>
+        <v>4303.152</v>
       </c>
       <c r="J6">
-        <v>3182.9</v>
+        <v>1340.105</v>
       </c>
       <c r="K6">
-        <v>9.5</v>
+        <v>169.05600000000001</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11671</v>
+        <v>6643.7870000000003</v>
       </c>
       <c r="O6">
-        <v>16323.5</v>
+        <v>8280.8719999999994</v>
       </c>
       <c r="P6">
-        <v>3249</v>
+        <v>1549.605</v>
       </c>
       <c r="Q6">
-        <v>880.6</v>
+        <v>51.006</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>70600</v>
+        <v>57000</v>
       </c>
       <c r="T6">
-        <v>4181.8999999999996</v>
+        <v>2336.5419999999999</v>
       </c>
       <c r="U6">
-        <v>1781.2</v>
+        <v>472.15100000000001</v>
       </c>
       <c r="V6">
-        <v>1314.8</v>
+        <v>1185.087</v>
       </c>
       <c r="W6">
-        <v>-70.099999999999994</v>
+        <v>-35.686</v>
       </c>
       <c r="X6">
-        <v>-261</v>
+        <v>-811.78499999999997</v>
       </c>
       <c r="Y6">
-        <v>31.8</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-1.7</v>
+        <v>-35.805</v>
       </c>
       <c r="AA6">
-        <v>271.89999999999998</v>
+        <v>164.14099999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>204.6</v>
+        <v>128.566</v>
       </c>
       <c r="D7">
-        <v>3307.3</v>
+        <v>1732.4259999999999</v>
       </c>
       <c r="E7">
-        <v>5932.4</v>
+        <v>4239.5420000000004</v>
       </c>
       <c r="F7">
-        <v>872.9</v>
+        <v>559.88800000000003</v>
       </c>
       <c r="G7">
-        <v>9620.5</v>
+        <v>5444.1790000000001</v>
       </c>
       <c r="H7">
-        <v>19823.5</v>
+        <v>10968.837</v>
       </c>
       <c r="I7">
-        <v>7230.4</v>
+        <v>3819.643</v>
       </c>
       <c r="J7">
-        <v>3180.8</v>
+        <v>2609.7710000000002</v>
       </c>
       <c r="K7">
-        <v>11.7</v>
+        <v>205.18700000000001</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-13.842000000000001</v>
       </c>
       <c r="N7">
-        <v>10867.2</v>
+        <v>5995.8879999999999</v>
       </c>
       <c r="O7">
-        <v>15543</v>
+        <v>8893.4339999999993</v>
       </c>
       <c r="P7">
-        <v>3192.9</v>
+        <v>2892.2170000000001</v>
       </c>
       <c r="Q7">
-        <v>-278.5</v>
+        <v>29.56</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>4280.5</v>
+        <v>2075.4029999999998</v>
       </c>
       <c r="U7">
-        <v>1502.7</v>
+        <v>501.71100000000001</v>
       </c>
       <c r="V7">
-        <v>-0.5</v>
+        <v>-758.18799999999999</v>
       </c>
       <c r="W7">
-        <v>-69.8</v>
+        <v>-36.81</v>
       </c>
       <c r="X7">
-        <v>-252.3</v>
+        <v>937.29700000000003</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>18.8</v>
+        <v>-2.153</v>
       </c>
       <c r="AA7">
-        <v>204.6</v>
+        <v>128.566</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>282.7</v>
+        <v>187.315</v>
       </c>
       <c r="D8">
-        <v>3561</v>
+        <v>1916.569</v>
       </c>
       <c r="E8">
-        <v>6041.5</v>
+        <v>4555.0039999999999</v>
       </c>
       <c r="F8">
-        <v>1019.7</v>
+        <v>694.71900000000005</v>
       </c>
       <c r="G8">
-        <v>9857.5</v>
+        <v>5689.5460000000003</v>
       </c>
       <c r="H8">
-        <v>20106.5</v>
+        <v>11575.553</v>
       </c>
       <c r="I8">
-        <v>7461.1</v>
+        <v>4361.9269999999997</v>
       </c>
       <c r="J8">
-        <v>3926.1</v>
+        <v>2556.0630000000001</v>
       </c>
       <c r="K8">
-        <v>12.4</v>
+        <v>103.593</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10689.8</v>
+        <v>6328.5770000000002</v>
       </c>
       <c r="O8">
-        <v>16162.7</v>
+        <v>9186.5570000000007</v>
       </c>
       <c r="P8">
-        <v>3938.9</v>
+        <v>2721.8290000000002</v>
       </c>
       <c r="Q8">
-        <v>162.6</v>
+        <v>-91.74</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3943.8</v>
+        <v>2388.9960000000001</v>
       </c>
       <c r="U8">
-        <v>1665.3</v>
+        <v>409.971</v>
       </c>
       <c r="V8">
-        <v>157.80000000000001</v>
+        <v>365.39100000000002</v>
       </c>
       <c r="W8">
-        <v>-83.7</v>
+        <v>-37.154000000000003</v>
       </c>
       <c r="X8">
-        <v>197</v>
+        <v>-244.56100000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-9.9</v>
+        <v>2.3170000000000002</v>
       </c>
       <c r="AA8">
-        <v>282.7</v>
+        <v>187.315</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>203.9</v>
+        <v>126.104</v>
       </c>
       <c r="D9">
-        <v>3406.6</v>
+        <v>1768.4590000000001</v>
       </c>
       <c r="E9">
-        <v>6260.2</v>
+        <v>4238.1559999999999</v>
       </c>
       <c r="F9">
-        <v>890.8</v>
+        <v>572.88499999999999</v>
       </c>
       <c r="G9">
-        <v>10397.1</v>
+        <v>5314.05</v>
       </c>
       <c r="H9">
-        <v>20798</v>
+        <v>11222.307000000001</v>
       </c>
       <c r="I9">
-        <v>7430.2</v>
+        <v>4062.2530000000002</v>
       </c>
       <c r="J9">
-        <v>4450.6000000000004</v>
+        <v>2508.7089999999998</v>
       </c>
       <c r="K9">
-        <v>11.1</v>
+        <v>95.126000000000005</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10702.2</v>
+        <v>5927.4430000000002</v>
       </c>
       <c r="O9">
-        <v>16754.599999999999</v>
+        <v>8743.0280000000002</v>
       </c>
       <c r="P9">
-        <v>4462.1000000000004</v>
+        <v>2635.0430000000001</v>
       </c>
       <c r="Q9">
-        <v>291</v>
+        <v>-52.322000000000003</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4043.4</v>
+        <v>2479.279</v>
       </c>
       <c r="U9">
-        <v>1956.3</v>
+        <v>357.649</v>
       </c>
       <c r="V9">
-        <v>142.80000000000001</v>
+        <v>160.125</v>
       </c>
       <c r="W9">
-        <v>-81.900000000000006</v>
+        <v>-36.994</v>
       </c>
       <c r="X9">
-        <v>164.7</v>
+        <v>-158.245</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>12.443</v>
       </c>
       <c r="AA9">
-        <v>203.9</v>
+        <v>126.104</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>307.10000000000002</v>
+        <v>201.47399999999999</v>
       </c>
       <c r="D10">
-        <v>3944.6</v>
+        <v>2118.8449999999998</v>
       </c>
       <c r="E10">
-        <v>6958.2</v>
+        <v>4338.366</v>
       </c>
       <c r="F10">
-        <v>1029.3</v>
+        <v>755.87800000000004</v>
       </c>
       <c r="G10">
-        <v>11661.4</v>
+        <v>5637.0659999999998</v>
       </c>
       <c r="H10">
-        <v>22151.9</v>
+        <v>11944.078</v>
       </c>
       <c r="I10">
-        <v>8296.7000000000007</v>
+        <v>4833.6809999999996</v>
       </c>
       <c r="J10">
-        <v>4448.5</v>
+        <v>1944.8979999999999</v>
       </c>
       <c r="K10">
-        <v>6.4</v>
+        <v>50.393999999999998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11875.8</v>
+        <v>6839.5240000000003</v>
       </c>
       <c r="O10">
-        <v>17997.2</v>
+        <v>9202.3359999999993</v>
       </c>
       <c r="P10">
-        <v>4512.6000000000004</v>
+        <v>2030.548</v>
       </c>
       <c r="Q10">
-        <v>722</v>
+        <v>309.30200000000002</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>71100</v>
+        <v>57600</v>
       </c>
       <c r="T10">
-        <v>4154.7</v>
+        <v>2741.7420000000002</v>
       </c>
       <c r="U10">
-        <v>2678.3</v>
+        <v>666.95100000000002</v>
       </c>
       <c r="V10">
-        <v>1151.2</v>
+        <v>1233.2729999999999</v>
       </c>
       <c r="W10">
-        <v>-162.4</v>
+        <v>-37.453000000000003</v>
       </c>
       <c r="X10">
-        <v>-329.5</v>
+        <v>-654.28</v>
       </c>
       <c r="Y10">
-        <v>33.9</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.2</v>
+        <v>7.806</v>
       </c>
       <c r="AA10">
-        <v>307.10000000000002</v>
+        <v>201.47399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>205.1</v>
+        <v>115.5</v>
       </c>
       <c r="D11">
-        <v>3398.9</v>
+        <v>1937.2</v>
       </c>
       <c r="E11">
-        <v>6313.2</v>
+        <v>4519.4189999999999</v>
       </c>
       <c r="F11">
-        <v>857.9</v>
+        <v>575.20000000000005</v>
       </c>
       <c r="G11">
-        <v>10601.2</v>
+        <v>5573.8159999999998</v>
       </c>
       <c r="H11">
-        <v>20908.3</v>
+        <v>11815.114</v>
       </c>
       <c r="I11">
-        <v>7294.7</v>
+        <v>4260.47</v>
       </c>
       <c r="J11">
-        <v>4446.3</v>
+        <v>2380.0709999999999</v>
       </c>
       <c r="K11">
-        <v>11.6</v>
+        <v>95.906000000000006</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-29.7</v>
       </c>
       <c r="N11">
-        <v>10943.3</v>
+        <v>6254.2730000000001</v>
       </c>
       <c r="O11">
-        <v>17058.7</v>
+        <v>8938.0300000000007</v>
       </c>
       <c r="P11">
-        <v>4458.3</v>
+        <v>2482.0459999999998</v>
       </c>
       <c r="Q11">
-        <v>-606.5</v>
+        <v>-312.39999999999998</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3849.6</v>
+        <v>2877.0839999999998</v>
       </c>
       <c r="U11">
-        <v>2071.8000000000002</v>
+        <v>354.56299999999999</v>
       </c>
       <c r="V11">
-        <v>-209.7</v>
+        <v>-663.8</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="X11">
-        <v>-284.3</v>
+        <v>406.6</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AA11">
-        <v>205.1</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>289.60000000000002</v>
+        <v>180.1</v>
       </c>
       <c r="D12">
-        <v>3637</v>
+        <v>2149.5</v>
       </c>
       <c r="E12">
-        <v>6637</v>
+        <v>4696.1909999999998</v>
       </c>
       <c r="F12">
-        <v>1029.9000000000001</v>
+        <v>722.8</v>
       </c>
       <c r="G12">
-        <v>10288.200000000001</v>
+        <v>5919.0330000000004</v>
       </c>
       <c r="H12">
-        <v>20525</v>
+        <v>12589.695</v>
       </c>
       <c r="I12">
-        <v>7797.7</v>
+        <v>4543.0469999999996</v>
       </c>
       <c r="J12">
-        <v>4037.5</v>
+        <v>2523.7399999999998</v>
       </c>
       <c r="K12">
-        <v>12.8</v>
+        <v>64.888999999999996</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11227.1</v>
+        <v>6569.5280000000002</v>
       </c>
       <c r="O12">
-        <v>16819</v>
+        <v>9420.1630000000005</v>
       </c>
       <c r="P12">
-        <v>4050.6</v>
+        <v>2609.0320000000002</v>
       </c>
       <c r="Q12">
-        <v>-671.9</v>
+        <v>168.4</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3706</v>
+        <v>3169.5320000000002</v>
       </c>
       <c r="U12">
-        <v>1399.9</v>
+        <v>523.03200000000004</v>
       </c>
       <c r="V12">
-        <v>276.2</v>
+        <v>300.5</v>
       </c>
       <c r="W12">
-        <v>-106.7</v>
+        <v>-37.5</v>
       </c>
       <c r="X12">
-        <v>-829.6</v>
+        <v>44.8</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>11.2</v>
+        <v>6.6</v>
       </c>
       <c r="AA12">
-        <v>289.5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>196</v>
+        <v>124.5</v>
       </c>
       <c r="D13">
-        <v>3490.5</v>
+        <v>2028.6</v>
       </c>
       <c r="E13">
-        <v>6577.8</v>
+        <v>4631.701</v>
       </c>
       <c r="F13">
-        <v>905.3</v>
+        <v>616.4</v>
       </c>
       <c r="G13">
-        <v>10465.4</v>
+        <v>5915.259</v>
       </c>
       <c r="H13">
-        <v>20870.8</v>
+        <v>12680.697</v>
       </c>
       <c r="I13">
-        <v>7533.1</v>
+        <v>4468.7280000000001</v>
       </c>
       <c r="J13">
-        <v>4035.4</v>
+        <v>2524.3240000000001</v>
       </c>
       <c r="K13">
-        <v>18.3</v>
+        <v>52.872999999999998</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11235.4</v>
+        <v>6521.375</v>
       </c>
       <c r="O13">
-        <v>16868.099999999999</v>
+        <v>9374.2240000000002</v>
       </c>
       <c r="P13">
-        <v>4054</v>
+        <v>2589.0070000000001</v>
       </c>
       <c r="Q13">
-        <v>121.6</v>
+        <v>40.9</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4002.7</v>
+        <v>3306.473</v>
       </c>
       <c r="U13">
-        <v>1521.5</v>
+        <v>563.89</v>
       </c>
       <c r="V13">
-        <v>293.39999999999998</v>
+        <v>254.4</v>
       </c>
       <c r="W13">
-        <v>-105.9</v>
+        <v>-37.1</v>
       </c>
       <c r="X13">
-        <v>-170.4</v>
+        <v>-81.099999999999994</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>3.4</v>
+        <v>-2.4</v>
       </c>
       <c r="AA13">
-        <v>196</v>
+        <v>124.6</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>300.39999999999998</v>
+        <v>210.9</v>
       </c>
       <c r="D14">
-        <v>4058.1</v>
+        <v>2506</v>
       </c>
       <c r="E14">
-        <v>6632.6</v>
+        <v>4970.3999999999996</v>
       </c>
       <c r="F14">
-        <v>1067</v>
+        <v>793.6</v>
       </c>
       <c r="G14">
-        <v>11652.3</v>
+        <v>7285.9</v>
       </c>
       <c r="H14">
-        <v>22098.7</v>
+        <v>14620</v>
       </c>
       <c r="I14">
-        <v>8358.9</v>
+        <v>5513.3</v>
       </c>
       <c r="J14">
-        <v>4033.4</v>
+        <v>2536.6</v>
       </c>
       <c r="K14">
-        <v>5.9</v>
+        <v>42.4</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12277.7</v>
+        <v>7762.5</v>
       </c>
       <c r="O14">
-        <v>17828.8</v>
+        <v>10829.7</v>
       </c>
       <c r="P14">
-        <v>4095.1</v>
+        <v>2591.4</v>
       </c>
       <c r="Q14">
-        <v>1189</v>
+        <v>679.6</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>71800</v>
+        <v>58500</v>
       </c>
       <c r="T14">
-        <v>4269.8999999999996</v>
+        <v>3790.3</v>
       </c>
       <c r="U14">
-        <v>2710.5</v>
+        <v>1243.5</v>
       </c>
       <c r="V14">
-        <v>1449.1</v>
+        <v>1163.0999999999999</v>
       </c>
       <c r="W14">
-        <v>-105.8</v>
+        <v>-37.5</v>
       </c>
       <c r="X14">
-        <v>-135.5</v>
+        <v>-15.7</v>
       </c>
       <c r="Y14">
-        <v>33.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-0.7</v>
+        <v>-270.39999999999998</v>
       </c>
       <c r="AA14">
-        <v>300.39999999999998</v>
+        <v>210.9</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>205.5</v>
+        <v>135.6</v>
       </c>
       <c r="D15">
-        <v>3502.2</v>
+        <v>2231.4</v>
       </c>
       <c r="E15">
-        <v>6006.6</v>
+        <v>5269.5</v>
       </c>
       <c r="F15">
-        <v>879.4</v>
+        <v>637.79999999999995</v>
       </c>
       <c r="G15">
-        <v>10576.6</v>
+        <v>6620</v>
       </c>
       <c r="H15">
-        <v>21087.9</v>
+        <v>14038.3</v>
       </c>
       <c r="I15">
-        <v>7403.4</v>
+        <v>4977.3</v>
       </c>
       <c r="J15">
-        <v>3778.6</v>
+        <v>2547.6999999999998</v>
       </c>
       <c r="K15">
-        <v>7.5</v>
+        <v>61.8</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="N15">
-        <v>11448.3</v>
+        <v>7122.8</v>
       </c>
       <c r="O15">
-        <v>16680.7</v>
+        <v>10237.9</v>
       </c>
       <c r="P15">
-        <v>4039.2</v>
+        <v>2614.6</v>
       </c>
       <c r="Q15">
-        <v>-628.4</v>
+        <v>-724.2</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4407.2</v>
+        <v>3800.4</v>
       </c>
       <c r="U15">
-        <v>2082.1</v>
+        <v>519.29999999999995</v>
       </c>
       <c r="V15">
-        <v>-430.3</v>
+        <v>-787.3</v>
       </c>
       <c r="W15">
-        <v>-105.9</v>
+        <v>-37.6</v>
       </c>
       <c r="X15">
-        <v>-156.9</v>
+        <v>-160.80000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>11.9</v>
+        <v>281</v>
       </c>
       <c r="AA15">
-        <v>205.5</v>
+        <v>135.6</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>325.2</v>
+        <v>206.1</v>
       </c>
       <c r="D16">
-        <v>3870.9</v>
+        <v>2407.8000000000002</v>
       </c>
       <c r="E16">
-        <v>6499.2</v>
+        <v>5338.8</v>
       </c>
       <c r="F16">
-        <v>1076.3</v>
+        <v>754.2</v>
       </c>
       <c r="G16">
-        <v>10546.5</v>
+        <v>6885.4</v>
       </c>
       <c r="H16">
-        <v>21219.4</v>
+        <v>14417.3</v>
       </c>
       <c r="I16">
-        <v>8015.4</v>
+        <v>5327.4</v>
       </c>
       <c r="J16">
-        <v>3785.2</v>
+        <v>2359.4</v>
       </c>
       <c r="K16">
-        <v>24.7</v>
+        <v>41.4</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11811.1</v>
+        <v>7640</v>
       </c>
       <c r="O16">
-        <v>17075.099999999999</v>
+        <v>10589.1</v>
       </c>
       <c r="P16">
-        <v>4063</v>
+        <v>2591.3000000000002</v>
       </c>
       <c r="Q16">
-        <v>-547.4</v>
+        <v>138.9</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4144.3</v>
+        <v>3828.2</v>
       </c>
       <c r="U16">
-        <v>1534.7</v>
+        <v>658.2</v>
       </c>
       <c r="V16">
-        <v>242.8</v>
+        <v>523.4</v>
       </c>
       <c r="W16">
-        <v>-105.9</v>
+        <v>-42.1</v>
       </c>
       <c r="X16">
-        <v>-735.5</v>
+        <v>-232.8</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-11.9</v>
+        <v>5.9</v>
       </c>
       <c r="AA16">
-        <v>325.2</v>
+        <v>206.1</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>243.8</v>
+        <v>145.30000000000001</v>
       </c>
       <c r="D17">
-        <v>3749.6</v>
+        <v>2319</v>
       </c>
       <c r="E17">
-        <v>6135.7</v>
+        <v>5168.3</v>
       </c>
       <c r="F17">
-        <v>936.4</v>
+        <v>659.5</v>
       </c>
       <c r="G17">
-        <v>9567.2000000000007</v>
+        <v>6497.4</v>
       </c>
       <c r="H17">
-        <v>19968.599999999999</v>
+        <v>14129.5</v>
       </c>
       <c r="I17">
-        <v>7448.6</v>
+        <v>4926.1000000000004</v>
       </c>
       <c r="J17">
-        <v>3778.9</v>
+        <v>2359.1</v>
       </c>
       <c r="K17">
-        <v>31.3</v>
+        <v>33.4</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11075.3</v>
+        <v>7333.7</v>
       </c>
       <c r="O17">
-        <v>16267</v>
+        <v>10309.9</v>
       </c>
       <c r="P17">
-        <v>3810.5</v>
+        <v>2584.6999999999998</v>
       </c>
       <c r="Q17">
-        <v>-697</v>
+        <v>-229.1</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3701.6</v>
+        <v>3819.6</v>
       </c>
       <c r="U17">
-        <v>837.7</v>
+        <v>429.1</v>
       </c>
       <c r="V17">
-        <v>220.6</v>
+        <v>111.3</v>
       </c>
       <c r="W17">
-        <v>-128.9</v>
+        <v>-41.9</v>
       </c>
       <c r="X17">
-        <v>-705.1</v>
+        <v>-222.4</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="AA17">
-        <v>243.8</v>
+        <v>145.30000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>329.5</v>
+        <v>236.5</v>
       </c>
       <c r="D18">
-        <v>4195.1000000000004</v>
+        <v>2789.1</v>
       </c>
       <c r="E18">
-        <v>6524.7</v>
+        <v>5453.3</v>
       </c>
       <c r="F18">
-        <v>1075.8</v>
+        <v>849</v>
       </c>
       <c r="G18">
-        <v>11079.7</v>
+        <v>8095.1</v>
       </c>
       <c r="H18">
-        <v>21428.400000000001</v>
+        <v>16002.4</v>
       </c>
       <c r="I18">
-        <v>8797.5</v>
+        <v>6011.5</v>
       </c>
       <c r="J18">
-        <v>4542.1000000000004</v>
+        <v>2358.4</v>
       </c>
       <c r="K18">
-        <v>7.2</v>
+        <v>17.5</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12061.1</v>
+        <v>8743.9</v>
       </c>
       <c r="O18">
-        <v>17921.400000000001</v>
+        <v>11728.8</v>
       </c>
       <c r="P18">
-        <v>4549.7</v>
+        <v>2585.1</v>
       </c>
       <c r="Q18">
-        <v>1550.4</v>
+        <v>736.5</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>74000</v>
+        <v>61000</v>
       </c>
       <c r="T18">
-        <v>3507</v>
+        <v>4273.6000000000004</v>
       </c>
       <c r="U18">
-        <v>2388.1</v>
+        <v>1165.5999999999999</v>
       </c>
       <c r="V18">
-        <v>1443.4</v>
+        <v>1440.2</v>
       </c>
       <c r="W18">
-        <v>-127.3</v>
+        <v>-41.5</v>
       </c>
       <c r="X18">
-        <v>339.4</v>
+        <v>-34</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-566</v>
       </c>
       <c r="AA18">
-        <v>329.5</v>
+        <v>236.5</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>209.1</v>
+        <v>150.5</v>
       </c>
       <c r="D19">
-        <v>3469.2</v>
+        <v>2403</v>
       </c>
       <c r="E19">
-        <v>5840.1</v>
+        <v>5625.9</v>
       </c>
       <c r="F19">
-        <v>554</v>
+        <v>672</v>
       </c>
       <c r="G19">
-        <v>9904.9</v>
+        <v>7217.6</v>
       </c>
       <c r="H19">
-        <v>20071</v>
+        <v>15049.5</v>
       </c>
       <c r="I19">
-        <v>7850.2</v>
+        <v>5375.8</v>
       </c>
       <c r="J19">
-        <v>4593.8</v>
+        <v>2358.1</v>
       </c>
       <c r="K19">
-        <v>9.6</v>
+        <v>11.9</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-5.2</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="N19">
-        <v>11021.2</v>
+        <v>8043.8</v>
       </c>
       <c r="O19">
-        <v>17060.900000000001</v>
+        <v>11006.5</v>
       </c>
       <c r="P19">
-        <v>4603.7</v>
+        <v>2569.6</v>
       </c>
       <c r="Q19">
-        <v>-861.4</v>
+        <v>-577.5</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3010.1</v>
+        <v>4043</v>
       </c>
       <c r="U19">
-        <v>1526.7</v>
+        <v>588.1</v>
       </c>
       <c r="V19">
-        <v>-238</v>
+        <v>-717</v>
       </c>
       <c r="W19">
-        <v>-126.2</v>
+        <v>-41.6</v>
       </c>
       <c r="X19">
-        <v>-418.5</v>
+        <v>-389.5</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>556.70000000000005</v>
       </c>
       <c r="AA19">
-        <v>209.1</v>
+        <v>150.5</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>313.89999999999998</v>
+        <v>225.8</v>
       </c>
       <c r="D20">
-        <v>3805.3</v>
+        <v>2615.8000000000002</v>
       </c>
       <c r="E20">
-        <v>6501.6</v>
+        <v>5663.9</v>
       </c>
       <c r="F20">
-        <v>721.4</v>
+        <v>812.5</v>
       </c>
       <c r="G20">
-        <v>10500.4</v>
+        <v>6923.2</v>
       </c>
       <c r="H20">
-        <v>20775.5</v>
+        <v>14714.1</v>
       </c>
       <c r="I20">
-        <v>8622.2999999999993</v>
+        <v>5394.3</v>
       </c>
       <c r="J20">
-        <v>3547.9</v>
+        <v>2357.9</v>
       </c>
       <c r="K20">
-        <v>14.1</v>
+        <v>131.6</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12548.8</v>
+        <v>7713.2</v>
       </c>
       <c r="O20">
-        <v>17511.5</v>
+        <v>10729</v>
       </c>
       <c r="P20">
-        <v>4567.1000000000004</v>
+        <v>2490.6999999999998</v>
       </c>
       <c r="Q20">
-        <v>-170.7</v>
+        <v>-244.6</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3264</v>
+        <v>3985.1</v>
       </c>
       <c r="U20">
-        <v>1356</v>
+        <v>343.5</v>
       </c>
       <c r="V20">
-        <v>186</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="W20">
-        <v>-124.3</v>
+        <v>-40.799999999999997</v>
       </c>
       <c r="X20">
-        <v>-347.4</v>
+        <v>-303.60000000000002</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>9.3000000000000007</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="AA20">
-        <v>313.89999999999998</v>
+        <v>225.8</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>239.3</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="D21">
-        <v>3706.6</v>
+        <v>2522.9</v>
       </c>
       <c r="E21">
-        <v>6313.9</v>
+        <v>5646.2</v>
       </c>
       <c r="F21">
-        <v>603.79999999999995</v>
+        <v>695</v>
       </c>
       <c r="G21">
-        <v>10252.799999999999</v>
+        <v>6961.4</v>
       </c>
       <c r="H21">
-        <v>20457.3</v>
+        <v>14833.5</v>
       </c>
       <c r="I21">
-        <v>8336.5</v>
+        <v>5326.1</v>
       </c>
       <c r="J21">
-        <v>3602.2</v>
+        <v>2358.1</v>
       </c>
       <c r="K21">
-        <v>9.6999999999999993</v>
+        <v>213.9</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12386.9</v>
+        <v>7743.2</v>
       </c>
       <c r="O21">
-        <v>17375.2</v>
+        <v>10815.8</v>
       </c>
       <c r="P21">
-        <v>4631.1000000000004</v>
+        <v>2572.6999999999998</v>
       </c>
       <c r="Q21">
-        <v>71.5</v>
+        <v>52.1</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3082.1</v>
+        <v>4017.7</v>
       </c>
       <c r="U21">
-        <v>1427.5</v>
+        <v>395.6</v>
       </c>
       <c r="V21">
-        <v>492.8</v>
+        <v>265.8</v>
       </c>
       <c r="W21">
-        <v>-123.4</v>
+        <v>-41.4</v>
       </c>
       <c r="X21">
-        <v>-256.10000000000002</v>
+        <v>-107.6</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="AA21">
-        <v>239.3</v>
+        <v>161.69999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>331.6</v>
+        <v>252.6</v>
       </c>
       <c r="D22">
-        <v>4153.3</v>
+        <v>2939.4</v>
       </c>
       <c r="E22">
-        <v>7220.9</v>
+        <v>5908.1</v>
       </c>
       <c r="F22">
-        <v>763.7</v>
+        <v>888.5</v>
       </c>
       <c r="G22">
-        <v>11980.5</v>
+        <v>7967.4</v>
       </c>
       <c r="H22">
-        <v>22110.7</v>
+        <v>15919.9</v>
       </c>
       <c r="I22">
-        <v>9812</v>
+        <v>6218.9</v>
       </c>
       <c r="J22">
-        <v>3574.2</v>
+        <v>2357.5</v>
       </c>
       <c r="K22">
-        <v>5.2</v>
+        <v>15</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14219.6</v>
+        <v>8700.2999999999993</v>
       </c>
       <c r="O22">
-        <v>19053.400000000001</v>
+        <v>11798.9</v>
       </c>
       <c r="P22">
-        <v>4644.3999999999996</v>
+        <v>2373.6</v>
       </c>
       <c r="Q22">
-        <v>1177.7</v>
+        <v>440.2</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>74900</v>
+        <v>62000</v>
       </c>
       <c r="T22">
-        <v>3057.3</v>
+        <v>4121</v>
       </c>
       <c r="U22">
-        <v>2605.1999999999998</v>
+        <v>835.8</v>
       </c>
       <c r="V22">
-        <v>1731.5</v>
+        <v>1295.5999999999999</v>
       </c>
       <c r="W22">
-        <v>-122.8</v>
+        <v>-40.200000000000003</v>
       </c>
       <c r="X22">
-        <v>-407.1</v>
+        <v>-316.10000000000002</v>
       </c>
       <c r="Y22">
-        <v>35.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>-13.6</v>
+        <v>-359.5</v>
       </c>
       <c r="AA22">
-        <v>331.6</v>
+        <v>252.6</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>218.4</v>
+        <v>165.7</v>
       </c>
       <c r="D23">
-        <v>3499.1</v>
+        <v>2562.9</v>
       </c>
       <c r="E23">
-        <v>6321.4</v>
+        <v>5753</v>
       </c>
       <c r="F23">
-        <v>574.4</v>
+        <v>718.1</v>
       </c>
       <c r="G23">
-        <v>10545.4</v>
+        <v>8623.4</v>
       </c>
       <c r="H23">
-        <v>21067.7</v>
+        <v>16660.8</v>
       </c>
       <c r="I23">
-        <v>8405.7999999999993</v>
+        <v>6076.6</v>
       </c>
       <c r="J23">
-        <v>3612.7</v>
+        <v>3352.4</v>
       </c>
       <c r="K23">
-        <v>38.799999999999997</v>
+        <v>21.5</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="N23">
-        <v>12939.4</v>
+        <v>8600.2000000000007</v>
       </c>
       <c r="O23">
-        <v>17956.900000000001</v>
+        <v>12712.5</v>
       </c>
       <c r="P23">
-        <v>4706.2</v>
+        <v>3374.8</v>
       </c>
       <c r="Q23">
-        <v>-857.9</v>
+        <v>987.1</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3110.8</v>
+        <v>3948.3</v>
       </c>
       <c r="U23">
-        <v>1747.3</v>
+        <v>1822.9</v>
       </c>
       <c r="V23">
-        <v>-454</v>
+        <v>101</v>
       </c>
       <c r="W23">
-        <v>-122.2</v>
+        <v>-45.2</v>
       </c>
       <c r="X23">
-        <v>-365.4</v>
+        <v>606.9</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>11.7</v>
+        <v>336.2</v>
       </c>
       <c r="AA23">
-        <v>218.4</v>
+        <v>165.7</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>326.10000000000002</v>
+        <v>244</v>
       </c>
       <c r="D24">
-        <v>3884.9</v>
+        <v>2823.4</v>
       </c>
       <c r="E24">
-        <v>6422.6</v>
+        <v>6025.4</v>
       </c>
       <c r="F24">
-        <v>745.7</v>
+        <v>863.5</v>
       </c>
       <c r="G24">
-        <v>10314.200000000001</v>
+        <v>8195.5</v>
       </c>
       <c r="H24">
-        <v>20935.2</v>
+        <v>16453.3</v>
       </c>
       <c r="I24">
-        <v>8507</v>
+        <v>6249.6</v>
       </c>
       <c r="J24">
-        <v>5022.2</v>
+        <v>3220.4</v>
       </c>
       <c r="K24">
-        <v>11.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11540.8</v>
+        <v>8630.7000000000007</v>
       </c>
       <c r="O24">
-        <v>17938.3</v>
+        <v>12630.7</v>
       </c>
       <c r="P24">
-        <v>5033.8999999999996</v>
+        <v>3237.7</v>
       </c>
       <c r="Q24">
-        <v>-441.6</v>
+        <v>-730.9</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2996.9</v>
+        <v>3822.6</v>
       </c>
       <c r="U24">
-        <v>1305.7</v>
+        <v>1092</v>
       </c>
       <c r="V24">
-        <v>76.3</v>
+        <v>85.6</v>
       </c>
       <c r="W24">
-        <v>-120.7</v>
+        <v>-44.6</v>
       </c>
       <c r="X24">
-        <v>-45.3</v>
+        <v>-672.7</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-227</v>
+        <v>-3.8</v>
       </c>
       <c r="AA24">
-        <v>326.10000000000002</v>
+        <v>244.1</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>253.8</v>
+        <v>177.1</v>
       </c>
       <c r="D25">
-        <v>3791.1</v>
+        <v>2774.3</v>
       </c>
       <c r="E25">
-        <v>6488.9</v>
+        <v>6117.2</v>
       </c>
       <c r="F25">
-        <v>630.29999999999995</v>
+        <v>765.4</v>
       </c>
       <c r="G25">
-        <v>10831.9</v>
+        <v>8016.7</v>
       </c>
       <c r="H25">
-        <v>21401.9</v>
+        <v>16325.9</v>
       </c>
       <c r="I25">
-        <v>8817.1</v>
+        <v>6117.1</v>
       </c>
       <c r="J25">
-        <v>5007.3</v>
+        <v>3055.2</v>
       </c>
       <c r="K25">
-        <v>25</v>
+        <v>11.8</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11960.6</v>
+        <v>8617.7000000000007</v>
       </c>
       <c r="O25">
-        <v>18356.3</v>
+        <v>12458.3</v>
       </c>
       <c r="P25">
-        <v>5032.5</v>
+        <v>3067.7</v>
       </c>
       <c r="Q25">
-        <v>630.9</v>
+        <v>-283.7</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3045.6</v>
+        <v>3867.6</v>
       </c>
       <c r="U25">
-        <v>1936.6</v>
+        <v>808.3</v>
       </c>
       <c r="V25">
-        <v>713.4</v>
+        <v>203.7</v>
       </c>
       <c r="W25">
-        <v>-131.30000000000001</v>
+        <v>-43.3</v>
       </c>
       <c r="X25">
-        <v>-265.89999999999998</v>
+        <v>-335.6</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>198.9</v>
+        <v>-3.4</v>
       </c>
       <c r="AA25">
-        <v>253.8</v>
+        <v>177.1</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>350.3</v>
+        <v>277.2</v>
       </c>
       <c r="D26">
-        <v>4241.8</v>
+        <v>3216.2</v>
       </c>
       <c r="E26">
-        <v>7510.8</v>
+        <v>6628.1</v>
       </c>
       <c r="F26">
-        <v>795.3</v>
+        <v>942</v>
       </c>
       <c r="G26">
-        <v>12722</v>
+        <v>9646.2000000000007</v>
       </c>
       <c r="H26">
-        <v>23165.4</v>
+        <v>17804.7</v>
       </c>
       <c r="I26">
-        <v>10476.700000000001</v>
+        <v>7332.6</v>
       </c>
       <c r="J26">
-        <v>4968.1000000000004</v>
+        <v>3054.7</v>
       </c>
       <c r="K26">
-        <v>28.7</v>
+        <v>10.5</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>14010.9</v>
+        <v>10296.1</v>
       </c>
       <c r="O26">
-        <v>20304.2</v>
+        <v>13734.6</v>
       </c>
       <c r="P26">
-        <v>4996.8999999999996</v>
+        <v>3066.3</v>
       </c>
       <c r="Q26">
-        <v>1065.5999999999999</v>
+        <v>931.2</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>78500</v>
+        <v>66000</v>
       </c>
       <c r="T26">
-        <v>2861.2</v>
+        <v>4070.1</v>
       </c>
       <c r="U26">
-        <v>3002.2</v>
+        <v>1739.5</v>
       </c>
       <c r="V26">
-        <v>1616.7</v>
+        <v>1350.9</v>
       </c>
       <c r="W26">
-        <v>-131.19999999999999</v>
+        <v>-42.7</v>
       </c>
       <c r="X26">
-        <v>-321.7</v>
+        <v>-182.1</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>9.1</v>
+        <v>-148.80000000000001</v>
       </c>
       <c r="AA26">
-        <v>350.3</v>
+        <v>277.2</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>241.8</v>
+        <v>183</v>
       </c>
       <c r="D27">
-        <v>3587.4</v>
+        <v>2840.6</v>
       </c>
       <c r="E27">
-        <v>6796.8</v>
+        <v>6370.7</v>
       </c>
       <c r="F27">
-        <v>597</v>
+        <v>790</v>
       </c>
       <c r="G27">
-        <v>11728.8</v>
+        <v>8611.7999999999993</v>
       </c>
       <c r="H27">
-        <v>22237.3</v>
+        <v>17144.400000000001</v>
       </c>
       <c r="I27">
-        <v>9453.5</v>
+        <v>6490.9</v>
       </c>
       <c r="J27">
-        <v>4964.2</v>
+        <v>3054.7</v>
       </c>
       <c r="K27">
-        <v>28.6</v>
+        <v>12.1</v>
       </c>
       <c r="L27">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>13070.1</v>
+        <v>9443.5</v>
       </c>
       <c r="O27">
-        <v>19379.7</v>
+        <v>13301.8</v>
       </c>
       <c r="P27">
-        <v>4992.8</v>
+        <v>3067.7</v>
       </c>
       <c r="Q27">
-        <v>-560</v>
+        <v>-711.2</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2857.6</v>
+        <v>3842.6</v>
       </c>
       <c r="U27">
-        <v>2442.1999999999998</v>
+        <v>1028.3</v>
       </c>
       <c r="V27">
-        <v>-195.3</v>
+        <v>-346.3</v>
       </c>
       <c r="W27">
-        <v>-130.80000000000001</v>
+        <v>-42.6</v>
       </c>
       <c r="X27">
-        <v>-386.6</v>
+        <v>-451.8</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>6.1</v>
+        <v>152.5</v>
       </c>
       <c r="AA27">
-        <v>241.8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>328.6</v>
+        <v>276.7</v>
       </c>
       <c r="D28">
-        <v>3790.1</v>
+        <v>3126.1</v>
       </c>
       <c r="E28">
-        <v>7142.8</v>
+        <v>6628.1</v>
       </c>
       <c r="F28">
-        <v>752.7</v>
+        <v>954.3</v>
       </c>
       <c r="G28">
-        <v>11505.1</v>
+        <v>8637.9</v>
       </c>
       <c r="H28">
-        <v>22163.4</v>
+        <v>17362.2</v>
       </c>
       <c r="I28">
-        <v>9849.2000000000007</v>
+        <v>6926.2</v>
       </c>
       <c r="J28">
-        <v>4960.3</v>
+        <v>3055.2</v>
       </c>
       <c r="K28">
-        <v>19.3</v>
+        <v>11.1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>12863.7</v>
+        <v>9555.4</v>
       </c>
       <c r="O28">
-        <v>19214.400000000001</v>
+        <v>13478.6</v>
       </c>
       <c r="P28">
-        <v>4979.6000000000004</v>
+        <v>3067</v>
       </c>
       <c r="Q28">
-        <v>-608.20000000000005</v>
+        <v>-255.9</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2949</v>
+        <v>3883.6</v>
       </c>
       <c r="U28">
-        <v>1834</v>
+        <v>772.4</v>
       </c>
       <c r="V28">
-        <v>-135.69999999999999</v>
+        <v>298.8</v>
       </c>
       <c r="W28">
-        <v>-129.9</v>
+        <v>-41.6</v>
       </c>
       <c r="X28">
-        <v>-516.1</v>
+        <v>-351.4</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>19.3</v>
+        <v>-11.2</v>
       </c>
       <c r="AA28">
-        <v>328.6</v>
+        <v>276.7</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>263.60000000000002</v>
+        <v>202.2</v>
       </c>
       <c r="D29">
-        <v>3719.5</v>
+        <v>3101.4</v>
       </c>
       <c r="E29">
-        <v>7045.7</v>
+        <v>7154.7</v>
       </c>
       <c r="F29">
-        <v>638.29999999999995</v>
+        <v>852.9</v>
       </c>
       <c r="G29">
-        <v>11417.4</v>
+        <v>9048.7999999999993</v>
       </c>
       <c r="H29">
-        <v>22207.5</v>
+        <v>18133.2</v>
       </c>
       <c r="I29">
-        <v>9427.7999999999993</v>
+        <v>7098.2</v>
       </c>
       <c r="J29">
-        <v>4956.3</v>
+        <v>3056.6</v>
       </c>
       <c r="K29">
-        <v>38.700000000000003</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>12621.2</v>
+        <v>10023.6</v>
       </c>
       <c r="O29">
-        <v>18975.8</v>
+        <v>14042.7</v>
       </c>
       <c r="P29">
-        <v>4995</v>
+        <v>3074.7</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>-195.2</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3231.7</v>
+        <v>4090.5</v>
       </c>
       <c r="U29">
-        <v>1843</v>
+        <v>577.20000000000005</v>
       </c>
       <c r="V29">
-        <v>175</v>
+        <v>216.2</v>
       </c>
       <c r="W29">
-        <v>-127.2</v>
+        <v>-49.5</v>
       </c>
       <c r="X29">
-        <v>-219.2</v>
+        <v>-138.69999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>32.700000000000003</v>
+        <v>-9</v>
       </c>
       <c r="AA29">
-        <v>263.60000000000002</v>
+        <v>202.2</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>254.4</v>
+        <v>313.8</v>
       </c>
       <c r="D30">
-        <v>4176.5</v>
+        <v>3625.9</v>
       </c>
       <c r="E30">
-        <v>8083.8</v>
+        <v>6830.4</v>
       </c>
       <c r="F30">
-        <v>793.5</v>
+        <v>593.5</v>
       </c>
       <c r="G30">
-        <v>14116</v>
+        <v>10504.2</v>
       </c>
       <c r="H30">
-        <v>24931.200000000001</v>
+        <v>19271.7</v>
       </c>
       <c r="I30">
-        <v>11574.6</v>
+        <v>8080.5</v>
       </c>
       <c r="J30">
-        <v>4952.3</v>
+        <v>3054.7</v>
       </c>
       <c r="K30">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>15108.9</v>
+        <v>11227.2</v>
       </c>
       <c r="O30">
-        <v>21596.6</v>
+        <v>14937.9</v>
       </c>
       <c r="P30">
-        <v>5074.6000000000004</v>
+        <v>3069.3</v>
       </c>
       <c r="Q30">
-        <v>1953</v>
+        <v>1216</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>77300</v>
+        <v>70000</v>
       </c>
       <c r="T30">
-        <v>3334.6</v>
+        <v>4333.8</v>
       </c>
       <c r="U30">
-        <v>3796</v>
+        <v>1793.2</v>
       </c>
       <c r="V30">
-        <v>2179.9</v>
+        <v>1430.6</v>
       </c>
       <c r="W30">
-        <v>-127.3</v>
+        <v>-49.1</v>
       </c>
       <c r="X30">
-        <v>-220.7</v>
+        <v>-98.8</v>
       </c>
       <c r="Y30">
-        <v>78.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="AA30">
-        <v>254.4</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>264.10000000000002</v>
+        <v>208.7</v>
       </c>
       <c r="D31">
-        <v>3629.6</v>
+        <v>3195.4</v>
       </c>
       <c r="E31">
-        <v>7198.8</v>
+        <v>7115.1</v>
       </c>
       <c r="F31">
-        <v>596.5</v>
+        <v>868.5</v>
       </c>
       <c r="G31">
-        <v>12338.5</v>
+        <v>9468.2999999999993</v>
       </c>
       <c r="H31">
-        <v>23513.1</v>
+        <v>18437.400000000001</v>
       </c>
       <c r="I31">
-        <v>10159.200000000001</v>
+        <v>7119.6</v>
       </c>
       <c r="J31">
-        <v>4948.3999999999996</v>
+        <v>3054.8</v>
       </c>
       <c r="K31">
-        <v>8.6</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L31">
-        <v>-3.6</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>13598.8</v>
+        <v>10342.700000000001</v>
       </c>
       <c r="O31">
-        <v>20121</v>
+        <v>14124.2</v>
       </c>
       <c r="P31">
-        <v>4957</v>
+        <v>3077.6</v>
       </c>
       <c r="Q31">
-        <v>-1227.9000000000001</v>
+        <v>-979.3</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3392.1</v>
+        <v>4313.2</v>
       </c>
       <c r="U31">
-        <v>2568.1</v>
+        <v>813.9</v>
       </c>
       <c r="V31">
-        <v>-620.79999999999995</v>
+        <v>-507.6</v>
       </c>
       <c r="W31">
-        <v>-138.9</v>
+        <v>-49.1</v>
       </c>
       <c r="X31">
-        <v>-426.9</v>
+        <v>-340.5</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>7</v>
+        <v>-3.7</v>
       </c>
       <c r="AA31">
-        <v>264.10000000000002</v>
+        <v>208.7</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>364.2</v>
+        <v>306.89999999999998</v>
       </c>
       <c r="D32">
-        <v>3859.6</v>
+        <v>3476.9</v>
       </c>
       <c r="E32">
-        <v>6760.5</v>
+        <v>7231.2</v>
       </c>
       <c r="F32">
-        <v>767.1</v>
+        <v>1060.5999999999999</v>
       </c>
       <c r="G32">
-        <v>11230.1</v>
+        <v>9533.6</v>
       </c>
       <c r="H32">
-        <v>22169.5</v>
+        <v>18683.599999999999</v>
       </c>
       <c r="I32">
-        <v>9568.1</v>
+        <v>7403.7</v>
       </c>
       <c r="J32">
-        <v>4944.5</v>
+        <v>3054.6</v>
       </c>
       <c r="K32">
-        <v>20.8</v>
+        <v>22.8</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>12617.9</v>
+        <v>10345.299999999999</v>
       </c>
       <c r="O32">
-        <v>19132.099999999999</v>
+        <v>14155.6</v>
       </c>
       <c r="P32">
-        <v>4965.3</v>
+        <v>3080.6</v>
       </c>
       <c r="Q32">
-        <v>-654.79999999999995</v>
+        <v>101.9</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3037.4</v>
+        <v>4528</v>
       </c>
       <c r="U32">
-        <v>1913.3</v>
+        <v>915.8</v>
       </c>
       <c r="V32">
-        <v>47.9</v>
+        <v>416.1</v>
       </c>
       <c r="W32">
-        <v>-139.19999999999999</v>
+        <v>-48.2</v>
       </c>
       <c r="X32">
-        <v>-475.5</v>
+        <v>-139.30000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-7</v>
+        <v>3.5</v>
       </c>
       <c r="AA32">
-        <v>364.2</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>298.89999999999998</v>
+        <v>213.7</v>
       </c>
       <c r="D33">
-        <v>3714.3</v>
+        <v>3316.2</v>
       </c>
       <c r="E33">
-        <v>6811</v>
+        <v>6796.6</v>
       </c>
       <c r="F33">
-        <v>650.5</v>
+        <v>910.6</v>
       </c>
       <c r="G33">
-        <v>11575.3</v>
+        <v>8351.2000000000007</v>
       </c>
       <c r="H33">
-        <v>22487.599999999999</v>
+        <v>17339.2</v>
       </c>
       <c r="I33">
-        <v>9568.2000000000007</v>
+        <v>6642.9</v>
       </c>
       <c r="J33">
-        <v>4357.8</v>
+        <v>3054.4</v>
       </c>
       <c r="K33">
-        <v>11.3</v>
+        <v>177.1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>13280.1</v>
+        <v>9649.7000000000007</v>
       </c>
       <c r="O33">
-        <v>19313.2</v>
+        <v>13427.8</v>
       </c>
       <c r="P33">
-        <v>4868.5</v>
+        <v>3234.3</v>
       </c>
       <c r="Q33">
-        <v>185.8</v>
+        <v>-385.2</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3174.4</v>
+        <v>3911.4</v>
       </c>
       <c r="U33">
-        <v>2099.1</v>
+        <v>530.6</v>
       </c>
       <c r="V33">
-        <v>334.3</v>
+        <v>325.89999999999998</v>
       </c>
       <c r="W33">
-        <v>-135.6</v>
+        <v>-48</v>
       </c>
       <c r="X33">
-        <v>-274.2</v>
+        <v>-354.5</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="AA33">
-        <v>298.89999999999998</v>
+        <v>213.6</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>399.2</v>
+        <v>271</v>
       </c>
       <c r="D34">
-        <v>4086.7</v>
+        <v>3371.4</v>
       </c>
       <c r="E34">
-        <v>7666.1</v>
+        <v>5775.5</v>
       </c>
       <c r="F34">
-        <v>750.3</v>
+        <v>960</v>
       </c>
       <c r="G34">
-        <v>13726.9</v>
+        <v>8564.9</v>
       </c>
       <c r="H34">
-        <v>24617</v>
+        <v>17318.400000000001</v>
       </c>
       <c r="I34">
-        <v>11464.3</v>
+        <v>6881.2</v>
       </c>
       <c r="J34">
-        <v>4436.8999999999996</v>
+        <v>3054.3</v>
       </c>
       <c r="K34">
-        <v>8.1</v>
+        <v>16.2</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>15270.2</v>
+        <v>9754.2000000000007</v>
       </c>
       <c r="O34">
-        <v>21265.8</v>
+        <v>13565</v>
       </c>
       <c r="P34">
-        <v>5072.1000000000004</v>
+        <v>3073.2</v>
       </c>
       <c r="Q34">
-        <v>1553.3</v>
+        <v>566.70000000000005</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>70400</v>
+        <v>68000</v>
       </c>
       <c r="T34">
-        <v>3351.2</v>
+        <v>3753.4</v>
       </c>
       <c r="U34">
-        <v>3652.4</v>
+        <v>1097.3</v>
       </c>
       <c r="V34">
-        <v>1960.9</v>
+        <v>1159.8</v>
       </c>
       <c r="W34">
-        <v>-134.80000000000001</v>
+        <v>-46.7</v>
       </c>
       <c r="X34">
-        <v>-264.5</v>
+        <v>-302.10000000000002</v>
       </c>
       <c r="Y34">
-        <v>88.9</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>15.9</v>
+        <v>7.1</v>
       </c>
       <c r="AA34">
-        <v>399.2</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>263.2</v>
+        <v>164.5</v>
       </c>
       <c r="D35">
-        <v>3468.9</v>
+        <v>2746.6</v>
       </c>
       <c r="E35">
-        <v>7036.7</v>
+        <v>4883</v>
       </c>
       <c r="F35">
-        <v>592.1</v>
+        <v>732.8</v>
       </c>
       <c r="G35">
-        <v>13072.2</v>
+        <v>6939.9</v>
       </c>
       <c r="H35">
-        <v>25211.200000000001</v>
+        <v>15560.7</v>
       </c>
       <c r="I35">
-        <v>10342.9</v>
+        <v>5635.7</v>
       </c>
       <c r="J35">
-        <v>4432.8</v>
+        <v>2718.1</v>
       </c>
       <c r="K35">
-        <v>595.4</v>
+        <v>43.8</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-841.8</v>
       </c>
       <c r="N35">
-        <v>14913.1</v>
+        <v>8291.7999999999993</v>
       </c>
       <c r="O35">
-        <v>21979.1</v>
+        <v>11834.9</v>
       </c>
       <c r="P35">
-        <v>7132.3</v>
+        <v>2764.4</v>
       </c>
       <c r="Q35">
-        <v>-202.7</v>
+        <v>-684.9</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3232.1</v>
+        <v>3725.8</v>
       </c>
       <c r="U35">
-        <v>3449.7</v>
+        <v>412.4</v>
       </c>
       <c r="V35">
-        <v>-395.6</v>
+        <v>-228.4</v>
       </c>
       <c r="W35">
-        <v>-134.80000000000001</v>
+        <v>-46.7</v>
       </c>
       <c r="X35">
-        <v>132.30000000000001</v>
+        <v>-371.9</v>
       </c>
       <c r="Y35">
-        <v>1307.8</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AA35">
-        <v>263.2</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>370.7</v>
+        <v>233.4</v>
       </c>
       <c r="D36">
-        <v>3719.8</v>
+        <v>2870.7</v>
       </c>
       <c r="E36">
-        <v>7244.9</v>
+        <v>4940.3</v>
       </c>
       <c r="F36">
-        <v>739.2</v>
+        <v>858.9</v>
       </c>
       <c r="G36">
-        <v>12802.8</v>
+        <v>6899.8</v>
       </c>
       <c r="H36">
-        <v>25042.1</v>
+        <v>15885.4</v>
       </c>
       <c r="I36">
-        <v>10445.9</v>
+        <v>5893.5</v>
       </c>
       <c r="J36">
-        <v>4025.9</v>
+        <v>2413.5</v>
       </c>
       <c r="K36">
-        <v>608.5</v>
+        <v>42</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>15068.1</v>
+        <v>8328.9</v>
       </c>
       <c r="O36">
-        <v>21825</v>
+        <v>11604.6</v>
       </c>
       <c r="P36">
-        <v>7264.5</v>
+        <v>2457.6</v>
       </c>
       <c r="Q36">
-        <v>-551.6</v>
+        <v>-12.5</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3217.1</v>
+        <v>4280.8</v>
       </c>
       <c r="U36">
-        <v>2898.1</v>
+        <v>399.9</v>
       </c>
       <c r="V36">
-        <v>-97.3</v>
+        <v>337.8</v>
       </c>
       <c r="W36">
-        <v>-145.6</v>
+        <v>-46.8</v>
       </c>
       <c r="X36">
-        <v>-429</v>
+        <v>-398.9</v>
       </c>
       <c r="Y36">
-        <v>1408.7</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AA36">
-        <v>370.7</v>
+        <v>233.4</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>290.2</v>
+        <v>165.6</v>
       </c>
       <c r="D37">
-        <v>3623.8</v>
+        <v>2837.6</v>
       </c>
       <c r="E37">
-        <v>6547.9</v>
+        <v>4812.5</v>
       </c>
       <c r="F37">
-        <v>628.4</v>
+        <v>785.3</v>
       </c>
       <c r="G37">
-        <v>11600.9</v>
+        <v>7109.7</v>
       </c>
       <c r="H37">
-        <v>23653.5</v>
+        <v>16201.4</v>
       </c>
       <c r="I37">
-        <v>9439.6</v>
+        <v>5893.2</v>
       </c>
       <c r="J37">
-        <v>4507</v>
+        <v>2236</v>
       </c>
       <c r="K37">
-        <v>7.9</v>
+        <v>174.5</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>13259.8</v>
+        <v>8605</v>
       </c>
       <c r="O37">
-        <v>20443.2</v>
+        <v>11729.4</v>
       </c>
       <c r="P37">
-        <v>6803.7</v>
+        <v>2412.8000000000002</v>
       </c>
       <c r="Q37">
-        <v>-457.7</v>
+        <v>197.5</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3210.3</v>
+        <v>4472</v>
       </c>
       <c r="U37">
-        <v>2440.4</v>
+        <v>597.4</v>
       </c>
       <c r="V37">
-        <v>261</v>
+        <v>343.7</v>
       </c>
       <c r="W37">
-        <v>-142.1</v>
+        <v>-46.8</v>
       </c>
       <c r="X37">
-        <v>-636.1</v>
+        <v>-99.9</v>
       </c>
       <c r="Y37">
-        <v>1368.5</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="AA37">
-        <v>290.2</v>
+        <v>165.6</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>415</v>
+        <v>229.5</v>
       </c>
       <c r="D38">
-        <v>4141.2</v>
+        <v>3265.8</v>
       </c>
       <c r="E38">
-        <v>7829</v>
+        <v>5574.1</v>
       </c>
       <c r="F38">
-        <v>752.9</v>
+        <v>893</v>
       </c>
       <c r="G38">
-        <v>14584.7</v>
+        <v>8788.5</v>
       </c>
       <c r="H38">
-        <v>26783.4</v>
+        <v>17920.7</v>
       </c>
       <c r="I38">
-        <v>11768.4</v>
+        <v>7143.9</v>
       </c>
       <c r="J38">
-        <v>4531.8999999999996</v>
+        <v>2220.6</v>
       </c>
       <c r="K38">
-        <v>10.1</v>
+        <v>19.3</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>15980.9</v>
+        <v>10082.5</v>
       </c>
       <c r="O38">
-        <v>23202.400000000001</v>
+        <v>13253.2</v>
       </c>
       <c r="P38">
-        <v>6848.1</v>
+        <v>2257.6999999999998</v>
       </c>
       <c r="Q38">
-        <v>1865.3</v>
+        <v>989.6</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>70000</v>
+        <v>63000</v>
       </c>
       <c r="T38">
-        <v>3581</v>
+        <v>4667.5</v>
       </c>
       <c r="U38">
-        <v>4305.7</v>
+        <v>1587</v>
       </c>
       <c r="V38">
-        <v>2087.9</v>
+        <v>1278.5</v>
       </c>
       <c r="W38">
-        <v>-141.80000000000001</v>
+        <v>-46.8</v>
       </c>
       <c r="X38">
-        <v>-289.2</v>
+        <v>-257.3</v>
       </c>
       <c r="Y38">
-        <v>1366.8</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>1.9</v>
+        <v>13.5</v>
       </c>
       <c r="AA38">
-        <v>415</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>258.10000000000002</v>
+        <v>163.4</v>
       </c>
       <c r="D39">
-        <v>3406.9</v>
+        <v>2920</v>
       </c>
       <c r="E39">
-        <v>6690.5</v>
+        <v>5184.3</v>
       </c>
       <c r="F39">
-        <v>564</v>
+        <v>757.6</v>
       </c>
       <c r="G39">
-        <v>11850.1</v>
+        <v>7851</v>
       </c>
       <c r="H39">
-        <v>23675.9</v>
+        <v>16829.5</v>
       </c>
       <c r="I39">
-        <v>9387.2000000000007</v>
+        <v>6406.4</v>
       </c>
       <c r="J39">
-        <v>5093.3999999999996</v>
+        <v>2215.3000000000002</v>
       </c>
       <c r="K39">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-2.8</v>
       </c>
       <c r="M39">
-        <v>-600</v>
+        <v>-5.9</v>
       </c>
       <c r="N39">
-        <v>12857</v>
+        <v>9235.1</v>
       </c>
       <c r="O39">
-        <v>20547.099999999999</v>
+        <v>12448.9</v>
       </c>
       <c r="P39">
-        <v>6332.7</v>
+        <v>2245.1999999999998</v>
       </c>
       <c r="Q39">
-        <v>-1613.2</v>
+        <v>-686.6</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3128.8</v>
+        <v>4380.6000000000004</v>
       </c>
       <c r="U39">
-        <v>2692.5</v>
+        <v>900.4</v>
       </c>
       <c r="V39">
-        <v>-987.2</v>
+        <v>-277.89999999999998</v>
       </c>
       <c r="W39">
-        <v>-141.69999999999999</v>
+        <v>-46.9</v>
       </c>
       <c r="X39">
-        <v>-391.2</v>
+        <v>-329.2</v>
       </c>
       <c r="Y39">
-        <v>1228.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA39">
-        <v>258.10000000000002</v>
+        <v>163.4</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-24.1</v>
+        <v>243.3</v>
       </c>
       <c r="D40">
-        <v>2800.7</v>
+        <v>3041.2</v>
       </c>
       <c r="E40">
-        <v>5290.8</v>
+        <v>5140.6000000000004</v>
       </c>
       <c r="F40">
-        <v>479.6</v>
+        <v>887.8</v>
       </c>
       <c r="G40">
-        <v>10893.1</v>
+        <v>7454.8</v>
       </c>
       <c r="H40">
-        <v>22641.1</v>
+        <v>16329.2</v>
       </c>
       <c r="I40">
-        <v>7919.5</v>
+        <v>6351.5</v>
       </c>
       <c r="J40">
-        <v>5714.1</v>
+        <v>1901.6</v>
       </c>
       <c r="K40">
-        <v>6.4</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>11330.9</v>
+        <v>9219.6</v>
       </c>
       <c r="O40">
-        <v>19599.900000000001</v>
+        <v>12119.6</v>
       </c>
       <c r="P40">
-        <v>6896.2</v>
+        <v>2207.4</v>
       </c>
       <c r="Q40">
-        <v>588.5</v>
+        <v>-366.7</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3041.2</v>
+        <v>4209.6000000000004</v>
       </c>
       <c r="U40">
-        <v>3281</v>
+        <v>533.70000000000005</v>
       </c>
       <c r="V40">
-        <v>125</v>
+        <v>107.3</v>
       </c>
       <c r="W40">
-        <v>-141.19999999999999</v>
+        <v>-61.5</v>
       </c>
       <c r="X40">
-        <v>385.5</v>
+        <v>-341.9</v>
       </c>
       <c r="Y40">
-        <v>1175.7</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-2.1</v>
       </c>
       <c r="AA40">
-        <v>-24.2</v>
+        <v>243.3</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>313.3</v>
+        <v>174.5</v>
       </c>
       <c r="D41">
-        <v>3206.5</v>
+        <v>2994.6</v>
       </c>
       <c r="E41">
-        <v>6298.3</v>
+        <v>5516.9</v>
       </c>
       <c r="F41">
-        <v>646.29999999999995</v>
+        <v>783.8</v>
       </c>
       <c r="G41">
-        <v>11862.4</v>
+        <v>9132.2999999999993</v>
       </c>
       <c r="H41">
-        <v>23779.5</v>
+        <v>18282.7</v>
       </c>
       <c r="I41">
-        <v>8572.7000000000007</v>
+        <v>6592.6</v>
       </c>
       <c r="J41">
-        <v>5761.5</v>
+        <v>2904.6</v>
       </c>
       <c r="K41">
-        <v>23.6</v>
+        <v>61.5</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>12163.8</v>
+        <v>9784.2000000000007</v>
       </c>
       <c r="O41">
-        <v>20447.400000000001</v>
+        <v>13682.8</v>
       </c>
       <c r="P41">
-        <v>6934</v>
+        <v>3220.7</v>
       </c>
       <c r="Q41">
-        <v>-2.7</v>
+        <v>1155.5999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3332.1</v>
+        <v>4599.8999999999996</v>
       </c>
       <c r="U41">
-        <v>3278.3</v>
+        <v>1689.3</v>
       </c>
       <c r="V41">
-        <v>200.8</v>
+        <v>214.1</v>
       </c>
       <c r="W41">
-        <v>-139.80000000000001</v>
+        <v>-60.8</v>
       </c>
       <c r="X41">
-        <v>-181.8</v>
+        <v>928.4</v>
       </c>
       <c r="Y41">
-        <v>1148.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AA41">
-        <v>313.3</v>
+        <v>174.6</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>246.5</v>
+      </c>
+      <c r="D42">
+        <v>3586.8</v>
+      </c>
+      <c r="E42">
+        <v>5977.2</v>
+      </c>
+      <c r="F42">
+        <v>899.1</v>
+      </c>
+      <c r="G42">
+        <v>10194.1</v>
+      </c>
+      <c r="H42">
+        <v>19566.099999999999</v>
+      </c>
+      <c r="I42">
+        <v>7726.9</v>
+      </c>
+      <c r="J42">
+        <v>3148.8</v>
+      </c>
+      <c r="K42">
+        <v>50.2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>11023.1</v>
+      </c>
+      <c r="O42">
+        <v>15471.9</v>
+      </c>
+      <c r="P42">
+        <v>3251.4</v>
+      </c>
+      <c r="Q42">
+        <v>599.4</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>65500</v>
+      </c>
+      <c r="T42">
+        <v>4094.2</v>
+      </c>
+      <c r="U42">
+        <v>2288.6999999999998</v>
+      </c>
+      <c r="V42">
+        <v>1444.5</v>
+      </c>
+      <c r="W42">
+        <v>-60.5</v>
+      </c>
+      <c r="X42">
+        <v>-794.6</v>
+      </c>
+      <c r="Y42">
+        <v>30.7</v>
+      </c>
+      <c r="Z42">
+        <v>7.8</v>
+      </c>
+      <c r="AA42">
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>201.9</v>
+      </c>
+      <c r="D43">
+        <v>3151.3</v>
+      </c>
+      <c r="E43">
+        <v>5470.8</v>
+      </c>
+      <c r="F43">
+        <v>825.8</v>
+      </c>
+      <c r="G43">
+        <v>9165.9</v>
+      </c>
+      <c r="H43">
+        <v>19168.5</v>
+      </c>
+      <c r="I43">
+        <v>6918</v>
+      </c>
+      <c r="J43">
+        <v>3148.1</v>
+      </c>
+      <c r="K43">
+        <v>62.5</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>10396.9</v>
+      </c>
+      <c r="O43">
+        <v>14969.7</v>
+      </c>
+      <c r="P43">
+        <v>3212.2</v>
+      </c>
+      <c r="Q43">
+        <v>-776.5</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>4198.8</v>
+      </c>
+      <c r="U43">
+        <v>1512.2</v>
+      </c>
+      <c r="V43">
+        <v>-176.9</v>
+      </c>
+      <c r="W43">
+        <v>-57.9</v>
+      </c>
+      <c r="X43">
+        <v>-390</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>11.1</v>
+      </c>
+      <c r="AA43">
+        <v>201.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>275.10000000000002</v>
+      </c>
+      <c r="D44">
+        <v>3487.4</v>
+      </c>
+      <c r="E44">
+        <v>5981</v>
+      </c>
+      <c r="F44">
+        <v>1014.6</v>
+      </c>
+      <c r="G44">
+        <v>9034.4</v>
+      </c>
+      <c r="H44">
+        <v>19156.7</v>
+      </c>
+      <c r="I44">
+        <v>7155.6</v>
+      </c>
+      <c r="J44">
+        <v>3153.9</v>
+      </c>
+      <c r="K44">
+        <v>63.9</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>10354.799999999999</v>
+      </c>
+      <c r="O44">
+        <v>14920.8</v>
+      </c>
+      <c r="P44">
+        <v>3219.6</v>
+      </c>
+      <c r="Q44">
+        <v>-525.9</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>4235.8999999999996</v>
+      </c>
+      <c r="U44">
+        <v>986.3</v>
+      </c>
+      <c r="V44">
+        <v>-85.7</v>
+      </c>
+      <c r="W44">
+        <v>-71.3</v>
+      </c>
+      <c r="X44">
+        <v>-364.1</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-10.3</v>
+      </c>
+      <c r="AA44">
+        <v>275.10000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>203.7</v>
+      </c>
+      <c r="D45">
+        <v>3380.9</v>
+      </c>
+      <c r="E45">
+        <v>5971.4</v>
+      </c>
+      <c r="F45">
+        <v>876.2</v>
+      </c>
+      <c r="G45">
+        <v>8974.7000000000007</v>
+      </c>
+      <c r="H45">
+        <v>18936</v>
+      </c>
+      <c r="I45">
+        <v>6948.1</v>
+      </c>
+      <c r="J45">
+        <v>3184.2</v>
+      </c>
+      <c r="K45">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>10200.9</v>
+      </c>
+      <c r="O45">
+        <v>14829.7</v>
+      </c>
+      <c r="P45">
+        <v>3201.6</v>
+      </c>
+      <c r="Q45">
+        <v>-85.7</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>4106.3</v>
+      </c>
+      <c r="U45">
+        <v>900.6</v>
+      </c>
+      <c r="V45">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="W45">
+        <v>-69.8</v>
+      </c>
+      <c r="X45">
+        <v>-190.6</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>15.5</v>
+      </c>
+      <c r="AA45">
+        <v>203.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>271.89999999999998</v>
+      </c>
+      <c r="D46">
+        <v>3852.9</v>
+      </c>
+      <c r="E46">
+        <v>6632</v>
+      </c>
+      <c r="F46">
+        <v>998.1</v>
+      </c>
+      <c r="G46">
+        <v>10421.5</v>
+      </c>
+      <c r="H46">
+        <v>20505.400000000001</v>
+      </c>
+      <c r="I46">
+        <v>8060</v>
+      </c>
+      <c r="J46">
+        <v>3182.9</v>
+      </c>
+      <c r="K46">
+        <v>9.5</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>11671</v>
+      </c>
+      <c r="O46">
+        <v>16323.5</v>
+      </c>
+      <c r="P46">
+        <v>3249</v>
+      </c>
+      <c r="Q46">
+        <v>880.6</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>70600</v>
+      </c>
+      <c r="T46">
+        <v>4181.8999999999996</v>
+      </c>
+      <c r="U46">
+        <v>1781.2</v>
+      </c>
+      <c r="V46">
+        <v>1314.8</v>
+      </c>
+      <c r="W46">
+        <v>-70.099999999999994</v>
+      </c>
+      <c r="X46">
+        <v>-261</v>
+      </c>
+      <c r="Y46">
+        <v>31.8</v>
+      </c>
+      <c r="Z46">
+        <v>-1.7</v>
+      </c>
+      <c r="AA46">
+        <v>271.89999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>204.6</v>
+      </c>
+      <c r="D47">
+        <v>3307.3</v>
+      </c>
+      <c r="E47">
+        <v>5932.4</v>
+      </c>
+      <c r="F47">
+        <v>872.9</v>
+      </c>
+      <c r="G47">
+        <v>9620.5</v>
+      </c>
+      <c r="H47">
+        <v>19823.5</v>
+      </c>
+      <c r="I47">
+        <v>7230.4</v>
+      </c>
+      <c r="J47">
+        <v>3180.8</v>
+      </c>
+      <c r="K47">
+        <v>11.7</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>10867.2</v>
+      </c>
+      <c r="O47">
+        <v>15543</v>
+      </c>
+      <c r="P47">
+        <v>3192.9</v>
+      </c>
+      <c r="Q47">
+        <v>-278.5</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>4280.5</v>
+      </c>
+      <c r="U47">
+        <v>1502.7</v>
+      </c>
+      <c r="V47">
+        <v>-0.5</v>
+      </c>
+      <c r="W47">
+        <v>-69.8</v>
+      </c>
+      <c r="X47">
+        <v>-252.3</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>18.8</v>
+      </c>
+      <c r="AA47">
+        <v>204.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>282.7</v>
+      </c>
+      <c r="D48">
+        <v>3561</v>
+      </c>
+      <c r="E48">
+        <v>6041.5</v>
+      </c>
+      <c r="F48">
+        <v>1019.7</v>
+      </c>
+      <c r="G48">
+        <v>9857.5</v>
+      </c>
+      <c r="H48">
+        <v>20106.5</v>
+      </c>
+      <c r="I48">
+        <v>7461.1</v>
+      </c>
+      <c r="J48">
+        <v>3926.1</v>
+      </c>
+      <c r="K48">
+        <v>12.4</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>10689.8</v>
+      </c>
+      <c r="O48">
+        <v>16162.7</v>
+      </c>
+      <c r="P48">
+        <v>3938.9</v>
+      </c>
+      <c r="Q48">
+        <v>162.6</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3943.8</v>
+      </c>
+      <c r="U48">
+        <v>1665.3</v>
+      </c>
+      <c r="V48">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="W48">
+        <v>-83.7</v>
+      </c>
+      <c r="X48">
+        <v>197</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-9.9</v>
+      </c>
+      <c r="AA48">
+        <v>282.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>203.9</v>
+      </c>
+      <c r="D49">
+        <v>3406.6</v>
+      </c>
+      <c r="E49">
+        <v>6260.2</v>
+      </c>
+      <c r="F49">
+        <v>890.8</v>
+      </c>
+      <c r="G49">
+        <v>10397.1</v>
+      </c>
+      <c r="H49">
+        <v>20798</v>
+      </c>
+      <c r="I49">
+        <v>7430.2</v>
+      </c>
+      <c r="J49">
+        <v>4450.6000000000004</v>
+      </c>
+      <c r="K49">
+        <v>11.1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>10702.2</v>
+      </c>
+      <c r="O49">
+        <v>16754.599999999999</v>
+      </c>
+      <c r="P49">
+        <v>4462.1000000000004</v>
+      </c>
+      <c r="Q49">
+        <v>291</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4043.4</v>
+      </c>
+      <c r="U49">
+        <v>1956.3</v>
+      </c>
+      <c r="V49">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="W49">
+        <v>-81.900000000000006</v>
+      </c>
+      <c r="X49">
+        <v>164.7</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-0.5</v>
+      </c>
+      <c r="AA49">
+        <v>203.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="D50">
+        <v>3944.6</v>
+      </c>
+      <c r="E50">
+        <v>6958.2</v>
+      </c>
+      <c r="F50">
+        <v>1029.3</v>
+      </c>
+      <c r="G50">
+        <v>11661.4</v>
+      </c>
+      <c r="H50">
+        <v>22151.9</v>
+      </c>
+      <c r="I50">
+        <v>8296.7000000000007</v>
+      </c>
+      <c r="J50">
+        <v>4448.5</v>
+      </c>
+      <c r="K50">
+        <v>6.4</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>11875.8</v>
+      </c>
+      <c r="O50">
+        <v>17997.2</v>
+      </c>
+      <c r="P50">
+        <v>4512.6000000000004</v>
+      </c>
+      <c r="Q50">
+        <v>722</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>71100</v>
+      </c>
+      <c r="T50">
+        <v>4154.7</v>
+      </c>
+      <c r="U50">
+        <v>2678.3</v>
+      </c>
+      <c r="V50">
+        <v>1151.2</v>
+      </c>
+      <c r="W50">
+        <v>-162.4</v>
+      </c>
+      <c r="X50">
+        <v>-329.5</v>
+      </c>
+      <c r="Y50">
+        <v>33.9</v>
+      </c>
+      <c r="Z50">
+        <v>0.2</v>
+      </c>
+      <c r="AA50">
+        <v>307.10000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>205.1</v>
+      </c>
+      <c r="D51">
+        <v>3398.9</v>
+      </c>
+      <c r="E51">
+        <v>6313.2</v>
+      </c>
+      <c r="F51">
+        <v>857.9</v>
+      </c>
+      <c r="G51">
+        <v>10601.2</v>
+      </c>
+      <c r="H51">
+        <v>20908.3</v>
+      </c>
+      <c r="I51">
+        <v>7294.7</v>
+      </c>
+      <c r="J51">
+        <v>4446.3</v>
+      </c>
+      <c r="K51">
+        <v>11.6</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>10943.3</v>
+      </c>
+      <c r="O51">
+        <v>17058.7</v>
+      </c>
+      <c r="P51">
+        <v>4458.3</v>
+      </c>
+      <c r="Q51">
+        <v>-606.5</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3849.6</v>
+      </c>
+      <c r="U51">
+        <v>2071.8000000000002</v>
+      </c>
+      <c r="V51">
+        <v>-209.7</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-284.3</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>2.7</v>
+      </c>
+      <c r="AA51">
+        <v>205.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>289.60000000000002</v>
+      </c>
+      <c r="D52">
+        <v>3637</v>
+      </c>
+      <c r="E52">
+        <v>6637</v>
+      </c>
+      <c r="F52">
+        <v>1029.9000000000001</v>
+      </c>
+      <c r="G52">
+        <v>10288.200000000001</v>
+      </c>
+      <c r="H52">
+        <v>20525</v>
+      </c>
+      <c r="I52">
+        <v>7797.7</v>
+      </c>
+      <c r="J52">
+        <v>4037.5</v>
+      </c>
+      <c r="K52">
+        <v>12.8</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>11227.1</v>
+      </c>
+      <c r="O52">
+        <v>16819</v>
+      </c>
+      <c r="P52">
+        <v>4050.6</v>
+      </c>
+      <c r="Q52">
+        <v>-671.9</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3706</v>
+      </c>
+      <c r="U52">
+        <v>1399.9</v>
+      </c>
+      <c r="V52">
+        <v>276.2</v>
+      </c>
+      <c r="W52">
+        <v>-106.7</v>
+      </c>
+      <c r="X52">
+        <v>-829.6</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>11.2</v>
+      </c>
+      <c r="AA52">
+        <v>289.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>196</v>
+      </c>
+      <c r="D53">
+        <v>3490.5</v>
+      </c>
+      <c r="E53">
+        <v>6577.8</v>
+      </c>
+      <c r="F53">
+        <v>905.3</v>
+      </c>
+      <c r="G53">
+        <v>10465.4</v>
+      </c>
+      <c r="H53">
+        <v>20870.8</v>
+      </c>
+      <c r="I53">
+        <v>7533.1</v>
+      </c>
+      <c r="J53">
+        <v>4035.4</v>
+      </c>
+      <c r="K53">
+        <v>18.3</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>11235.4</v>
+      </c>
+      <c r="O53">
+        <v>16868.099999999999</v>
+      </c>
+      <c r="P53">
+        <v>4054</v>
+      </c>
+      <c r="Q53">
+        <v>121.6</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4002.7</v>
+      </c>
+      <c r="U53">
+        <v>1521.5</v>
+      </c>
+      <c r="V53">
+        <v>293.39999999999998</v>
+      </c>
+      <c r="W53">
+        <v>-105.9</v>
+      </c>
+      <c r="X53">
+        <v>-170.4</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>3.4</v>
+      </c>
+      <c r="AA53">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>300.39999999999998</v>
+      </c>
+      <c r="D54">
+        <v>4058.1</v>
+      </c>
+      <c r="E54">
+        <v>6632.6</v>
+      </c>
+      <c r="F54">
+        <v>1067</v>
+      </c>
+      <c r="G54">
+        <v>11652.3</v>
+      </c>
+      <c r="H54">
+        <v>22098.7</v>
+      </c>
+      <c r="I54">
+        <v>8358.9</v>
+      </c>
+      <c r="J54">
+        <v>4033.4</v>
+      </c>
+      <c r="K54">
+        <v>5.9</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>12277.7</v>
+      </c>
+      <c r="O54">
+        <v>17828.8</v>
+      </c>
+      <c r="P54">
+        <v>4095.1</v>
+      </c>
+      <c r="Q54">
+        <v>1189</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>71800</v>
+      </c>
+      <c r="T54">
+        <v>4269.8999999999996</v>
+      </c>
+      <c r="U54">
+        <v>2710.5</v>
+      </c>
+      <c r="V54">
+        <v>1449.1</v>
+      </c>
+      <c r="W54">
+        <v>-105.8</v>
+      </c>
+      <c r="X54">
+        <v>-135.5</v>
+      </c>
+      <c r="Y54">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="Z54">
+        <v>-0.7</v>
+      </c>
+      <c r="AA54">
+        <v>300.39999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>205.5</v>
+      </c>
+      <c r="D55">
+        <v>3502.2</v>
+      </c>
+      <c r="E55">
+        <v>6006.6</v>
+      </c>
+      <c r="F55">
+        <v>879.4</v>
+      </c>
+      <c r="G55">
+        <v>10576.6</v>
+      </c>
+      <c r="H55">
+        <v>21087.9</v>
+      </c>
+      <c r="I55">
+        <v>7403.4</v>
+      </c>
+      <c r="J55">
+        <v>3778.6</v>
+      </c>
+      <c r="K55">
+        <v>7.5</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>11448.3</v>
+      </c>
+      <c r="O55">
+        <v>16680.7</v>
+      </c>
+      <c r="P55">
+        <v>4039.2</v>
+      </c>
+      <c r="Q55">
+        <v>-628.4</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4407.2</v>
+      </c>
+      <c r="U55">
+        <v>2082.1</v>
+      </c>
+      <c r="V55">
+        <v>-430.3</v>
+      </c>
+      <c r="W55">
+        <v>-105.9</v>
+      </c>
+      <c r="X55">
+        <v>-156.9</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>11.9</v>
+      </c>
+      <c r="AA55">
+        <v>205.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>325.2</v>
+      </c>
+      <c r="D56">
+        <v>3870.9</v>
+      </c>
+      <c r="E56">
+        <v>6499.2</v>
+      </c>
+      <c r="F56">
+        <v>1076.3</v>
+      </c>
+      <c r="G56">
+        <v>10546.5</v>
+      </c>
+      <c r="H56">
+        <v>21219.4</v>
+      </c>
+      <c r="I56">
+        <v>8015.4</v>
+      </c>
+      <c r="J56">
+        <v>3785.2</v>
+      </c>
+      <c r="K56">
+        <v>24.7</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>11811.1</v>
+      </c>
+      <c r="O56">
+        <v>17075.099999999999</v>
+      </c>
+      <c r="P56">
+        <v>4063</v>
+      </c>
+      <c r="Q56">
+        <v>-547.4</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4144.3</v>
+      </c>
+      <c r="U56">
+        <v>1534.7</v>
+      </c>
+      <c r="V56">
+        <v>242.8</v>
+      </c>
+      <c r="W56">
+        <v>-105.9</v>
+      </c>
+      <c r="X56">
+        <v>-735.5</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-11.9</v>
+      </c>
+      <c r="AA56">
+        <v>325.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>243.8</v>
+      </c>
+      <c r="D57">
+        <v>3749.6</v>
+      </c>
+      <c r="E57">
+        <v>6135.7</v>
+      </c>
+      <c r="F57">
+        <v>936.4</v>
+      </c>
+      <c r="G57">
+        <v>9567.2000000000007</v>
+      </c>
+      <c r="H57">
+        <v>19968.599999999999</v>
+      </c>
+      <c r="I57">
+        <v>7448.6</v>
+      </c>
+      <c r="J57">
+        <v>3778.9</v>
+      </c>
+      <c r="K57">
+        <v>31.3</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>11075.3</v>
+      </c>
+      <c r="O57">
+        <v>16267</v>
+      </c>
+      <c r="P57">
+        <v>3810.5</v>
+      </c>
+      <c r="Q57">
+        <v>-697</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3701.6</v>
+      </c>
+      <c r="U57">
+        <v>837.7</v>
+      </c>
+      <c r="V57">
+        <v>220.6</v>
+      </c>
+      <c r="W57">
+        <v>-128.9</v>
+      </c>
+      <c r="X57">
+        <v>-705.1</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>243.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>329.5</v>
+      </c>
+      <c r="D58">
+        <v>4195.1000000000004</v>
+      </c>
+      <c r="E58">
+        <v>6524.7</v>
+      </c>
+      <c r="F58">
+        <v>1075.8</v>
+      </c>
+      <c r="G58">
+        <v>11079.7</v>
+      </c>
+      <c r="H58">
+        <v>21428.400000000001</v>
+      </c>
+      <c r="I58">
+        <v>8797.5</v>
+      </c>
+      <c r="J58">
+        <v>4542.1000000000004</v>
+      </c>
+      <c r="K58">
+        <v>7.2</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>12061.1</v>
+      </c>
+      <c r="O58">
+        <v>17921.400000000001</v>
+      </c>
+      <c r="P58">
+        <v>4549.7</v>
+      </c>
+      <c r="Q58">
+        <v>1550.4</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>74000</v>
+      </c>
+      <c r="T58">
+        <v>3507</v>
+      </c>
+      <c r="U58">
+        <v>2388.1</v>
+      </c>
+      <c r="V58">
+        <v>1443.4</v>
+      </c>
+      <c r="W58">
+        <v>-127.3</v>
+      </c>
+      <c r="X58">
+        <v>339.4</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>329.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>209.1</v>
+      </c>
+      <c r="D59">
+        <v>3469.2</v>
+      </c>
+      <c r="E59">
+        <v>5840.1</v>
+      </c>
+      <c r="F59">
+        <v>554</v>
+      </c>
+      <c r="G59">
+        <v>9904.9</v>
+      </c>
+      <c r="H59">
+        <v>20071</v>
+      </c>
+      <c r="I59">
+        <v>7850.2</v>
+      </c>
+      <c r="J59">
+        <v>4593.8</v>
+      </c>
+      <c r="K59">
+        <v>9.6</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>11021.2</v>
+      </c>
+      <c r="O59">
+        <v>17060.900000000001</v>
+      </c>
+      <c r="P59">
+        <v>4603.7</v>
+      </c>
+      <c r="Q59">
+        <v>-861.4</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3010.1</v>
+      </c>
+      <c r="U59">
+        <v>1526.7</v>
+      </c>
+      <c r="V59">
+        <v>-238</v>
+      </c>
+      <c r="W59">
+        <v>-126.2</v>
+      </c>
+      <c r="X59">
+        <v>-418.5</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>209.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>313.89999999999998</v>
+      </c>
+      <c r="D60">
+        <v>3805.3</v>
+      </c>
+      <c r="E60">
+        <v>6501.6</v>
+      </c>
+      <c r="F60">
+        <v>721.4</v>
+      </c>
+      <c r="G60">
+        <v>10500.4</v>
+      </c>
+      <c r="H60">
+        <v>20775.5</v>
+      </c>
+      <c r="I60">
+        <v>8622.2999999999993</v>
+      </c>
+      <c r="J60">
+        <v>3547.9</v>
+      </c>
+      <c r="K60">
+        <v>14.1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>12548.8</v>
+      </c>
+      <c r="O60">
+        <v>17511.5</v>
+      </c>
+      <c r="P60">
+        <v>4567.1000000000004</v>
+      </c>
+      <c r="Q60">
+        <v>-170.7</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3264</v>
+      </c>
+      <c r="U60">
+        <v>1356</v>
+      </c>
+      <c r="V60">
+        <v>186</v>
+      </c>
+      <c r="W60">
+        <v>-124.3</v>
+      </c>
+      <c r="X60">
+        <v>-347.4</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AA60">
+        <v>313.89999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>239.3</v>
+      </c>
+      <c r="D61">
+        <v>3706.6</v>
+      </c>
+      <c r="E61">
+        <v>6313.9</v>
+      </c>
+      <c r="F61">
+        <v>603.79999999999995</v>
+      </c>
+      <c r="G61">
+        <v>10252.799999999999</v>
+      </c>
+      <c r="H61">
+        <v>20457.3</v>
+      </c>
+      <c r="I61">
+        <v>8336.5</v>
+      </c>
+      <c r="J61">
+        <v>3602.2</v>
+      </c>
+      <c r="K61">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>12386.9</v>
+      </c>
+      <c r="O61">
+        <v>17375.2</v>
+      </c>
+      <c r="P61">
+        <v>4631.1000000000004</v>
+      </c>
+      <c r="Q61">
+        <v>71.5</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3082.1</v>
+      </c>
+      <c r="U61">
+        <v>1427.5</v>
+      </c>
+      <c r="V61">
+        <v>492.8</v>
+      </c>
+      <c r="W61">
+        <v>-123.4</v>
+      </c>
+      <c r="X61">
+        <v>-256.10000000000002</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>3.8</v>
+      </c>
+      <c r="AA61">
+        <v>239.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>331.6</v>
+      </c>
+      <c r="D62">
+        <v>4153.3</v>
+      </c>
+      <c r="E62">
+        <v>7220.9</v>
+      </c>
+      <c r="F62">
+        <v>763.7</v>
+      </c>
+      <c r="G62">
+        <v>11980.5</v>
+      </c>
+      <c r="H62">
+        <v>22110.7</v>
+      </c>
+      <c r="I62">
+        <v>9812</v>
+      </c>
+      <c r="J62">
+        <v>3574.2</v>
+      </c>
+      <c r="K62">
+        <v>5.2</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>14219.6</v>
+      </c>
+      <c r="O62">
+        <v>19053.400000000001</v>
+      </c>
+      <c r="P62">
+        <v>4644.3999999999996</v>
+      </c>
+      <c r="Q62">
+        <v>1177.7</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>74900</v>
+      </c>
+      <c r="T62">
+        <v>3057.3</v>
+      </c>
+      <c r="U62">
+        <v>2605.1999999999998</v>
+      </c>
+      <c r="V62">
+        <v>1731.5</v>
+      </c>
+      <c r="W62">
+        <v>-122.8</v>
+      </c>
+      <c r="X62">
+        <v>-407.1</v>
+      </c>
+      <c r="Y62">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="Z62">
+        <v>-13.6</v>
+      </c>
+      <c r="AA62">
+        <v>331.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>218.4</v>
+      </c>
+      <c r="D63">
+        <v>3499.1</v>
+      </c>
+      <c r="E63">
+        <v>6321.4</v>
+      </c>
+      <c r="F63">
+        <v>574.4</v>
+      </c>
+      <c r="G63">
+        <v>10545.4</v>
+      </c>
+      <c r="H63">
+        <v>21067.7</v>
+      </c>
+      <c r="I63">
+        <v>8405.7999999999993</v>
+      </c>
+      <c r="J63">
+        <v>3612.7</v>
+      </c>
+      <c r="K63">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>12939.4</v>
+      </c>
+      <c r="O63">
+        <v>17956.900000000001</v>
+      </c>
+      <c r="P63">
+        <v>4706.2</v>
+      </c>
+      <c r="Q63">
+        <v>-857.9</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3110.8</v>
+      </c>
+      <c r="U63">
+        <v>1747.3</v>
+      </c>
+      <c r="V63">
+        <v>-454</v>
+      </c>
+      <c r="W63">
+        <v>-122.2</v>
+      </c>
+      <c r="X63">
+        <v>-365.4</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>11.7</v>
+      </c>
+      <c r="AA63">
+        <v>218.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>326.10000000000002</v>
+      </c>
+      <c r="D64">
+        <v>3884.9</v>
+      </c>
+      <c r="E64">
+        <v>6422.6</v>
+      </c>
+      <c r="F64">
+        <v>745.7</v>
+      </c>
+      <c r="G64">
+        <v>10314.200000000001</v>
+      </c>
+      <c r="H64">
+        <v>20935.2</v>
+      </c>
+      <c r="I64">
+        <v>8507</v>
+      </c>
+      <c r="J64">
+        <v>5022.2</v>
+      </c>
+      <c r="K64">
+        <v>11.5</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>11540.8</v>
+      </c>
+      <c r="O64">
+        <v>17938.3</v>
+      </c>
+      <c r="P64">
+        <v>5033.8999999999996</v>
+      </c>
+      <c r="Q64">
+        <v>-441.6</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2996.9</v>
+      </c>
+      <c r="U64">
+        <v>1305.7</v>
+      </c>
+      <c r="V64">
+        <v>76.3</v>
+      </c>
+      <c r="W64">
+        <v>-120.7</v>
+      </c>
+      <c r="X64">
+        <v>-45.3</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-227</v>
+      </c>
+      <c r="AA64">
+        <v>326.10000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>253.8</v>
+      </c>
+      <c r="D65">
+        <v>3791.1</v>
+      </c>
+      <c r="E65">
+        <v>6488.9</v>
+      </c>
+      <c r="F65">
+        <v>630.29999999999995</v>
+      </c>
+      <c r="G65">
+        <v>10831.9</v>
+      </c>
+      <c r="H65">
+        <v>21401.9</v>
+      </c>
+      <c r="I65">
+        <v>8817.1</v>
+      </c>
+      <c r="J65">
+        <v>5007.3</v>
+      </c>
+      <c r="K65">
+        <v>25</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>11960.6</v>
+      </c>
+      <c r="O65">
+        <v>18356.3</v>
+      </c>
+      <c r="P65">
+        <v>5032.5</v>
+      </c>
+      <c r="Q65">
+        <v>630.9</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3045.6</v>
+      </c>
+      <c r="U65">
+        <v>1936.6</v>
+      </c>
+      <c r="V65">
+        <v>713.4</v>
+      </c>
+      <c r="W65">
+        <v>-131.30000000000001</v>
+      </c>
+      <c r="X65">
+        <v>-265.89999999999998</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>198.9</v>
+      </c>
+      <c r="AA65">
+        <v>253.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>350.3</v>
+      </c>
+      <c r="D66">
+        <v>4241.8</v>
+      </c>
+      <c r="E66">
+        <v>7510.8</v>
+      </c>
+      <c r="F66">
+        <v>795.3</v>
+      </c>
+      <c r="G66">
+        <v>12722</v>
+      </c>
+      <c r="H66">
+        <v>23165.4</v>
+      </c>
+      <c r="I66">
+        <v>10476.700000000001</v>
+      </c>
+      <c r="J66">
+        <v>4968.1000000000004</v>
+      </c>
+      <c r="K66">
+        <v>28.7</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>14010.9</v>
+      </c>
+      <c r="O66">
+        <v>20304.2</v>
+      </c>
+      <c r="P66">
+        <v>4996.8999999999996</v>
+      </c>
+      <c r="Q66">
+        <v>1065.5999999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>78500</v>
+      </c>
+      <c r="T66">
+        <v>2861.2</v>
+      </c>
+      <c r="U66">
+        <v>3002.2</v>
+      </c>
+      <c r="V66">
+        <v>1616.7</v>
+      </c>
+      <c r="W66">
+        <v>-131.19999999999999</v>
+      </c>
+      <c r="X66">
+        <v>-321.7</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>9.1</v>
+      </c>
+      <c r="AA66">
+        <v>350.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>241.8</v>
+      </c>
+      <c r="D67">
+        <v>3587.4</v>
+      </c>
+      <c r="E67">
+        <v>6796.8</v>
+      </c>
+      <c r="F67">
+        <v>597</v>
+      </c>
+      <c r="G67">
+        <v>11728.8</v>
+      </c>
+      <c r="H67">
+        <v>22237.3</v>
+      </c>
+      <c r="I67">
+        <v>9453.5</v>
+      </c>
+      <c r="J67">
+        <v>4964.2</v>
+      </c>
+      <c r="K67">
+        <v>28.6</v>
+      </c>
+      <c r="L67">
+        <v>-1.4</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>13070.1</v>
+      </c>
+      <c r="O67">
+        <v>19379.7</v>
+      </c>
+      <c r="P67">
+        <v>4992.8</v>
+      </c>
+      <c r="Q67">
+        <v>-560</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2857.6</v>
+      </c>
+      <c r="U67">
+        <v>2442.1999999999998</v>
+      </c>
+      <c r="V67">
+        <v>-195.3</v>
+      </c>
+      <c r="W67">
+        <v>-130.80000000000001</v>
+      </c>
+      <c r="X67">
+        <v>-386.6</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>6.1</v>
+      </c>
+      <c r="AA67">
+        <v>241.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>328.6</v>
+      </c>
+      <c r="D68">
+        <v>3790.1</v>
+      </c>
+      <c r="E68">
+        <v>7142.8</v>
+      </c>
+      <c r="F68">
+        <v>752.7</v>
+      </c>
+      <c r="G68">
+        <v>11505.1</v>
+      </c>
+      <c r="H68">
+        <v>22163.4</v>
+      </c>
+      <c r="I68">
+        <v>9849.2000000000007</v>
+      </c>
+      <c r="J68">
+        <v>4960.3</v>
+      </c>
+      <c r="K68">
+        <v>19.3</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>12863.7</v>
+      </c>
+      <c r="O68">
+        <v>19214.400000000001</v>
+      </c>
+      <c r="P68">
+        <v>4979.6000000000004</v>
+      </c>
+      <c r="Q68">
+        <v>-608.20000000000005</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2949</v>
+      </c>
+      <c r="U68">
+        <v>1834</v>
+      </c>
+      <c r="V68">
+        <v>-135.69999999999999</v>
+      </c>
+      <c r="W68">
+        <v>-129.9</v>
+      </c>
+      <c r="X68">
+        <v>-516.1</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>19.3</v>
+      </c>
+      <c r="AA68">
+        <v>328.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="D69">
+        <v>3719.5</v>
+      </c>
+      <c r="E69">
+        <v>7045.7</v>
+      </c>
+      <c r="F69">
+        <v>638.29999999999995</v>
+      </c>
+      <c r="G69">
+        <v>11417.4</v>
+      </c>
+      <c r="H69">
+        <v>22207.5</v>
+      </c>
+      <c r="I69">
+        <v>9427.7999999999993</v>
+      </c>
+      <c r="J69">
+        <v>4956.3</v>
+      </c>
+      <c r="K69">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>12621.2</v>
+      </c>
+      <c r="O69">
+        <v>18975.8</v>
+      </c>
+      <c r="P69">
+        <v>4995</v>
+      </c>
+      <c r="Q69">
+        <v>9</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>3231.7</v>
+      </c>
+      <c r="U69">
+        <v>1843</v>
+      </c>
+      <c r="V69">
+        <v>175</v>
+      </c>
+      <c r="W69">
+        <v>-127.2</v>
+      </c>
+      <c r="X69">
+        <v>-219.2</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA69">
+        <v>263.60000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>254.4</v>
+      </c>
+      <c r="D70">
+        <v>4176.5</v>
+      </c>
+      <c r="E70">
+        <v>8083.8</v>
+      </c>
+      <c r="F70">
+        <v>793.5</v>
+      </c>
+      <c r="G70">
+        <v>14116</v>
+      </c>
+      <c r="H70">
+        <v>24931.200000000001</v>
+      </c>
+      <c r="I70">
+        <v>11574.6</v>
+      </c>
+      <c r="J70">
+        <v>4952.3</v>
+      </c>
+      <c r="K70">
+        <v>11.8</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>15108.9</v>
+      </c>
+      <c r="O70">
+        <v>21596.6</v>
+      </c>
+      <c r="P70">
+        <v>5074.6000000000004</v>
+      </c>
+      <c r="Q70">
+        <v>1953</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>77300</v>
+      </c>
+      <c r="T70">
+        <v>3334.6</v>
+      </c>
+      <c r="U70">
+        <v>3796</v>
+      </c>
+      <c r="V70">
+        <v>2179.9</v>
+      </c>
+      <c r="W70">
+        <v>-127.3</v>
+      </c>
+      <c r="X70">
+        <v>-220.7</v>
+      </c>
+      <c r="Y70">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="Z70">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AA70">
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>264.10000000000002</v>
+      </c>
+      <c r="D71">
+        <v>3629.6</v>
+      </c>
+      <c r="E71">
+        <v>7198.8</v>
+      </c>
+      <c r="F71">
+        <v>596.5</v>
+      </c>
+      <c r="G71">
+        <v>12338.5</v>
+      </c>
+      <c r="H71">
+        <v>23513.1</v>
+      </c>
+      <c r="I71">
+        <v>10159.200000000001</v>
+      </c>
+      <c r="J71">
+        <v>4948.3999999999996</v>
+      </c>
+      <c r="K71">
+        <v>8.6</v>
+      </c>
+      <c r="L71">
+        <v>-3.6</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>13598.8</v>
+      </c>
+      <c r="O71">
+        <v>20121</v>
+      </c>
+      <c r="P71">
+        <v>4957</v>
+      </c>
+      <c r="Q71">
+        <v>-1227.9000000000001</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3392.1</v>
+      </c>
+      <c r="U71">
+        <v>2568.1</v>
+      </c>
+      <c r="V71">
+        <v>-620.79999999999995</v>
+      </c>
+      <c r="W71">
+        <v>-138.9</v>
+      </c>
+      <c r="X71">
+        <v>-426.9</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>7</v>
+      </c>
+      <c r="AA71">
+        <v>264.10000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>364.2</v>
+      </c>
+      <c r="D72">
+        <v>3859.6</v>
+      </c>
+      <c r="E72">
+        <v>6760.5</v>
+      </c>
+      <c r="F72">
+        <v>767.1</v>
+      </c>
+      <c r="G72">
+        <v>11230.1</v>
+      </c>
+      <c r="H72">
+        <v>22169.5</v>
+      </c>
+      <c r="I72">
+        <v>9568.1</v>
+      </c>
+      <c r="J72">
+        <v>4944.5</v>
+      </c>
+      <c r="K72">
+        <v>20.8</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>12617.9</v>
+      </c>
+      <c r="O72">
+        <v>19132.099999999999</v>
+      </c>
+      <c r="P72">
+        <v>4965.3</v>
+      </c>
+      <c r="Q72">
+        <v>-654.79999999999995</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3037.4</v>
+      </c>
+      <c r="U72">
+        <v>1913.3</v>
+      </c>
+      <c r="V72">
+        <v>47.9</v>
+      </c>
+      <c r="W72">
+        <v>-139.19999999999999</v>
+      </c>
+      <c r="X72">
+        <v>-475.5</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-7</v>
+      </c>
+      <c r="AA72">
+        <v>364.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>298.89999999999998</v>
+      </c>
+      <c r="D73">
+        <v>3714.3</v>
+      </c>
+      <c r="E73">
+        <v>6811</v>
+      </c>
+      <c r="F73">
+        <v>650.5</v>
+      </c>
+      <c r="G73">
+        <v>11575.3</v>
+      </c>
+      <c r="H73">
+        <v>22487.599999999999</v>
+      </c>
+      <c r="I73">
+        <v>9568.2000000000007</v>
+      </c>
+      <c r="J73">
+        <v>4357.8</v>
+      </c>
+      <c r="K73">
+        <v>11.3</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>13280.1</v>
+      </c>
+      <c r="O73">
+        <v>19313.2</v>
+      </c>
+      <c r="P73">
+        <v>4868.5</v>
+      </c>
+      <c r="Q73">
+        <v>185.8</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3174.4</v>
+      </c>
+      <c r="U73">
+        <v>2099.1</v>
+      </c>
+      <c r="V73">
+        <v>334.3</v>
+      </c>
+      <c r="W73">
+        <v>-135.6</v>
+      </c>
+      <c r="X73">
+        <v>-274.2</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>298.89999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>399.2</v>
+      </c>
+      <c r="D74">
+        <v>4086.7</v>
+      </c>
+      <c r="E74">
+        <v>7666.1</v>
+      </c>
+      <c r="F74">
+        <v>750.3</v>
+      </c>
+      <c r="G74">
+        <v>13726.9</v>
+      </c>
+      <c r="H74">
+        <v>24617</v>
+      </c>
+      <c r="I74">
+        <v>11464.3</v>
+      </c>
+      <c r="J74">
+        <v>4436.8999999999996</v>
+      </c>
+      <c r="K74">
+        <v>8.1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>15270.2</v>
+      </c>
+      <c r="O74">
+        <v>21265.8</v>
+      </c>
+      <c r="P74">
+        <v>5072.1000000000004</v>
+      </c>
+      <c r="Q74">
+        <v>1553.3</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>70400</v>
+      </c>
+      <c r="T74">
+        <v>3351.2</v>
+      </c>
+      <c r="U74">
+        <v>3652.4</v>
+      </c>
+      <c r="V74">
+        <v>1960.9</v>
+      </c>
+      <c r="W74">
+        <v>-134.80000000000001</v>
+      </c>
+      <c r="X74">
+        <v>-264.5</v>
+      </c>
+      <c r="Y74">
+        <v>88.9</v>
+      </c>
+      <c r="Z74">
+        <v>15.9</v>
+      </c>
+      <c r="AA74">
+        <v>399.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>263.2</v>
+      </c>
+      <c r="D75">
+        <v>3468.9</v>
+      </c>
+      <c r="E75">
+        <v>7036.7</v>
+      </c>
+      <c r="F75">
+        <v>592.1</v>
+      </c>
+      <c r="G75">
+        <v>13072.2</v>
+      </c>
+      <c r="H75">
+        <v>25211.200000000001</v>
+      </c>
+      <c r="I75">
+        <v>10342.9</v>
+      </c>
+      <c r="J75">
+        <v>4432.8</v>
+      </c>
+      <c r="K75">
+        <v>595.4</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>14913.1</v>
+      </c>
+      <c r="O75">
+        <v>21979.1</v>
+      </c>
+      <c r="P75">
+        <v>7132.3</v>
+      </c>
+      <c r="Q75">
+        <v>-202.7</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3232.1</v>
+      </c>
+      <c r="U75">
+        <v>3449.7</v>
+      </c>
+      <c r="V75">
+        <v>-395.6</v>
+      </c>
+      <c r="W75">
+        <v>-134.80000000000001</v>
+      </c>
+      <c r="X75">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="Y75">
+        <v>1307.8</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>263.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>370.7</v>
+      </c>
+      <c r="D76">
+        <v>3719.8</v>
+      </c>
+      <c r="E76">
+        <v>7244.9</v>
+      </c>
+      <c r="F76">
+        <v>739.2</v>
+      </c>
+      <c r="G76">
+        <v>12802.8</v>
+      </c>
+      <c r="H76">
+        <v>25042.1</v>
+      </c>
+      <c r="I76">
+        <v>10445.9</v>
+      </c>
+      <c r="J76">
+        <v>4025.9</v>
+      </c>
+      <c r="K76">
+        <v>608.5</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>15068.1</v>
+      </c>
+      <c r="O76">
+        <v>21825</v>
+      </c>
+      <c r="P76">
+        <v>7264.5</v>
+      </c>
+      <c r="Q76">
+        <v>-551.6</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3217.1</v>
+      </c>
+      <c r="U76">
+        <v>2898.1</v>
+      </c>
+      <c r="V76">
+        <v>-97.3</v>
+      </c>
+      <c r="W76">
+        <v>-145.6</v>
+      </c>
+      <c r="X76">
+        <v>-429</v>
+      </c>
+      <c r="Y76">
+        <v>1408.7</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>370.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>290.2</v>
+      </c>
+      <c r="D77">
+        <v>3623.8</v>
+      </c>
+      <c r="E77">
+        <v>6547.9</v>
+      </c>
+      <c r="F77">
+        <v>628.4</v>
+      </c>
+      <c r="G77">
+        <v>11600.9</v>
+      </c>
+      <c r="H77">
+        <v>23653.5</v>
+      </c>
+      <c r="I77">
+        <v>9439.6</v>
+      </c>
+      <c r="J77">
+        <v>4507</v>
+      </c>
+      <c r="K77">
+        <v>7.9</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>13259.8</v>
+      </c>
+      <c r="O77">
+        <v>20443.2</v>
+      </c>
+      <c r="P77">
+        <v>6803.7</v>
+      </c>
+      <c r="Q77">
+        <v>-457.7</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3210.3</v>
+      </c>
+      <c r="U77">
+        <v>2440.4</v>
+      </c>
+      <c r="V77">
+        <v>261</v>
+      </c>
+      <c r="W77">
+        <v>-142.1</v>
+      </c>
+      <c r="X77">
+        <v>-636.1</v>
+      </c>
+      <c r="Y77">
+        <v>1368.5</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>290.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>415</v>
+      </c>
+      <c r="D78">
+        <v>4141.2</v>
+      </c>
+      <c r="E78">
+        <v>7829</v>
+      </c>
+      <c r="F78">
+        <v>752.9</v>
+      </c>
+      <c r="G78">
+        <v>14584.7</v>
+      </c>
+      <c r="H78">
+        <v>26783.4</v>
+      </c>
+      <c r="I78">
+        <v>11768.4</v>
+      </c>
+      <c r="J78">
+        <v>4531.8999999999996</v>
+      </c>
+      <c r="K78">
+        <v>10.1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>15980.9</v>
+      </c>
+      <c r="O78">
+        <v>23202.400000000001</v>
+      </c>
+      <c r="P78">
+        <v>6848.1</v>
+      </c>
+      <c r="Q78">
+        <v>1865.3</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>70000</v>
+      </c>
+      <c r="T78">
+        <v>3581</v>
+      </c>
+      <c r="U78">
+        <v>4305.7</v>
+      </c>
+      <c r="V78">
+        <v>2087.9</v>
+      </c>
+      <c r="W78">
+        <v>-141.80000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-289.2</v>
+      </c>
+      <c r="Y78">
+        <v>1366.8</v>
+      </c>
+      <c r="Z78">
+        <v>1.9</v>
+      </c>
+      <c r="AA78">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>258.10000000000002</v>
+      </c>
+      <c r="D79">
+        <v>3406.9</v>
+      </c>
+      <c r="E79">
+        <v>6690.5</v>
+      </c>
+      <c r="F79">
+        <v>564</v>
+      </c>
+      <c r="G79">
+        <v>11850.1</v>
+      </c>
+      <c r="H79">
+        <v>23675.9</v>
+      </c>
+      <c r="I79">
+        <v>9387.2000000000007</v>
+      </c>
+      <c r="J79">
+        <v>5093.3999999999996</v>
+      </c>
+      <c r="K79">
+        <v>10.9</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-600</v>
+      </c>
+      <c r="N79">
+        <v>12857</v>
+      </c>
+      <c r="O79">
+        <v>20547.099999999999</v>
+      </c>
+      <c r="P79">
+        <v>6332.7</v>
+      </c>
+      <c r="Q79">
+        <v>-1613.2</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3128.8</v>
+      </c>
+      <c r="U79">
+        <v>2692.5</v>
+      </c>
+      <c r="V79">
+        <v>-987.2</v>
+      </c>
+      <c r="W79">
+        <v>-141.69999999999999</v>
+      </c>
+      <c r="X79">
+        <v>-391.2</v>
+      </c>
+      <c r="Y79">
+        <v>1228.4000000000001</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>258.10000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-24.1</v>
+      </c>
+      <c r="D80">
+        <v>2800.7</v>
+      </c>
+      <c r="E80">
+        <v>5290.8</v>
+      </c>
+      <c r="F80">
+        <v>479.6</v>
+      </c>
+      <c r="G80">
+        <v>10893.1</v>
+      </c>
+      <c r="H80">
+        <v>22641.1</v>
+      </c>
+      <c r="I80">
+        <v>7919.5</v>
+      </c>
+      <c r="J80">
+        <v>5714.1</v>
+      </c>
+      <c r="K80">
+        <v>6.4</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>11330.9</v>
+      </c>
+      <c r="O80">
+        <v>19599.900000000001</v>
+      </c>
+      <c r="P80">
+        <v>6896.2</v>
+      </c>
+      <c r="Q80">
+        <v>588.5</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3041.2</v>
+      </c>
+      <c r="U80">
+        <v>3281</v>
+      </c>
+      <c r="V80">
+        <v>125</v>
+      </c>
+      <c r="W80">
+        <v>-141.19999999999999</v>
+      </c>
+      <c r="X80">
+        <v>385.5</v>
+      </c>
+      <c r="Y80">
+        <v>1175.7</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-24.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>313.3</v>
+      </c>
+      <c r="D81">
+        <v>3206.5</v>
+      </c>
+      <c r="E81">
+        <v>6298.3</v>
+      </c>
+      <c r="F81">
+        <v>646.29999999999995</v>
+      </c>
+      <c r="G81">
+        <v>11862.4</v>
+      </c>
+      <c r="H81">
+        <v>23779.5</v>
+      </c>
+      <c r="I81">
+        <v>8572.7000000000007</v>
+      </c>
+      <c r="J81">
+        <v>5761.5</v>
+      </c>
+      <c r="K81">
+        <v>23.6</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>12163.8</v>
+      </c>
+      <c r="O81">
+        <v>20447.400000000001</v>
+      </c>
+      <c r="P81">
+        <v>6934</v>
+      </c>
+      <c r="Q81">
+        <v>-2.7</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3332.1</v>
+      </c>
+      <c r="U81">
+        <v>3278.3</v>
+      </c>
+      <c r="V81">
+        <v>200.8</v>
+      </c>
+      <c r="W81">
+        <v>-139.80000000000001</v>
+      </c>
+      <c r="X81">
+        <v>-181.8</v>
+      </c>
+      <c r="Y81">
+        <v>1148.9000000000001</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>313.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>398.1</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3757</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>7813.4</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>626.9</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>15590.1</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>27647.200000000001</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>11513</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>5807.3</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>3.9</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>15525.1</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>23860.6</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>7319.8</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>2322.1999999999998</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>64100</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3786.6</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>5600.5</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>2386</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-140</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-220.9</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>1188.5999999999999</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>3.2</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>398.1</v>
       </c>
     </row>
